--- a/data/hotels_by_city/Denver/Denver_shard_27.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_27.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="708">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33345-d225599-Reviews-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Comfort-Suites-Castle-Rock.h601736.Hotel-Information?chkin=4%2F16%2F2018&amp;chkout=4%2F17%2F2018&amp;rm1=a2&amp;regionId=178254&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1522715784279&amp;vip=false&amp;c=7e111a2f-732c-46ee-9930-19c04c8dfec9&amp;mctc=9&amp;exp_dp=75.65&amp;exp_ts=1522715785092&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,2002 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r589204703-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>33345</t>
+  </si>
+  <si>
+    <t>225599</t>
+  </si>
+  <si>
+    <t>589204703</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A true gem in customer service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A huge thanks to Kelly at the Comfort Inn at Castle Rock CO! We called last night around 5pm needing 19 rooms as our group was winding up a tour with us and due to storms were finding room availability difficult but from the first moment Kelly put me at ease and accommodated us. Then as we arrived late she stayed past her time to get off. Expediting the checking with a pleasant attitude. The rooms were very nice and beds extremely comfortable. Talked with GM the next morning and relayed how pleased we were. Will definitely stay here again. Very nice staff. Made our short stay a gem. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r583990323-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>583990323</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Two Day Stay</t>
+  </si>
+  <si>
+    <t>Pet Friendly!  Clean rooms and a delicious hot breakfast. My wife when down to desk,around 10:00pm., to get linens for sofa sleeper. Nobody was at front desk and she made several attempts to get someone there. She called on phone which nobody picked up. There was sign of " Now Hiring" on building?</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r583990075-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>583990075</t>
+  </si>
+  <si>
+    <t>Great for Denver Airport to AFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEMe used this as a halfway point between Air force Academy and Denver Airport.  Perfect! Clean, basic hotel. Plenty of room with sitting area. Quiet, right off the main road. Good food and shopping close by. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r539873970-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>539873970</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent value, service</t>
+  </si>
+  <si>
+    <t>The Good:--Very nice rooms. Clean, spacious, good design.--Very reasonably priced for the quality you get, so excellent value--Staff is awesome--Better breakfastThe bad:-- Kids swimming in their clothes in the pool. I did not use the pool but did notice.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r533858160-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>533858160</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>A bit disappointing</t>
+  </si>
+  <si>
+    <t>The hotel itself seems fine.  The beds were a bit hard; the pillows were harder -- no down/feather pillows -- which is okay, but when I asked, the "manager" was not very "welcoming" or "understanding."  The rooms were not very quiet -- but all in all, I would have not written a review -- if it were not for the breakfast on Sunday.  Breakfast is open from 6 to 10 on the weekends, and at 7 a.m. when we went down to eat, there were no eggs, no sausage, no milk to put on the cereal -- and no coffee.  When I asked about it, I was told that it would be 15 minutes before anything was ready.  Not really acceptable.  Hopefully, it was just a "bad" day for them -- an anomaly.  Good location for the event I was participating at...  Premises were clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>The hotel itself seems fine.  The beds were a bit hard; the pillows were harder -- no down/feather pillows -- which is okay, but when I asked, the "manager" was not very "welcoming" or "understanding."  The rooms were not very quiet -- but all in all, I would have not written a review -- if it were not for the breakfast on Sunday.  Breakfast is open from 6 to 10 on the weekends, and at 7 a.m. when we went down to eat, there were no eggs, no sausage, no milk to put on the cereal -- and no coffee.  When I asked about it, I was told that it would be 15 minutes before anything was ready.  Not really acceptable.  Hopefully, it was just a "bad" day for them -- an anomaly.  Good location for the event I was participating at...  Premises were clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r532640299-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>532640299</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Not Castle Comfort</t>
+  </si>
+  <si>
+    <t>This was a prepaid room using Verizon points, so I can’t really complain, but I want to give a clear picture to fellow travelers. This property is average is every way. Dated to the point of needing some renovation. The staff was professional but not particularly friendly. It was difficult to regulate the temperature in the room and the bed was too firm for my taste. The breakfast bar left a lot to be desired and the coffee was nasty!The best thing I can say is that the location is convenient to the freeway and to shopping and restaurants. We opted to move to the Hampton Inn across the street for the rest of our stay in Castle Rock. MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a prepaid room using Verizon points, so I can’t really complain, but I want to give a clear picture to fellow travelers. This property is average is every way. Dated to the point of needing some renovation. The staff was professional but not particularly friendly. It was difficult to regulate the temperature in the room and the bed was too firm for my taste. The breakfast bar left a lot to be desired and the coffee was nasty!The best thing I can say is that the location is convenient to the freeway and to shopping and restaurants. We opted to move to the Hampton Inn across the street for the rest of our stay in Castle Rock. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r524355986-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>524355986</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Good value, pleasant</t>
+  </si>
+  <si>
+    <t>We had a nice stay on our road trip from Dallas to Denver. We saved a lot of money by staying in Castle Rock instead of right in Denver but the location was excellent. It was an easy drive into Denver. Plus everything you could possibly need is right there conveniently by the hotel. The staff was friendly and the room was nice, clean, and comfortable. The linens were soft and the bed was comfortable. My only complaint is the coffee maker cups were crazy small, like 4 ounce shot glasses. Unfortunately, the maid service left our used, dirty coffee cups and didn't give us new cups after the room was cleaned. I would stay there again, but hope for better coffee service. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>We had a nice stay on our road trip from Dallas to Denver. We saved a lot of money by staying in Castle Rock instead of right in Denver but the location was excellent. It was an easy drive into Denver. Plus everything you could possibly need is right there conveniently by the hotel. The staff was friendly and the room was nice, clean, and comfortable. The linens were soft and the bed was comfortable. My only complaint is the coffee maker cups were crazy small, like 4 ounce shot glasses. Unfortunately, the maid service left our used, dirty coffee cups and didn't give us new cups after the room was cleaned. I would stay there again, but hope for better coffee service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r522563853-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>522563853</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Great overnight stop.</t>
+  </si>
+  <si>
+    <t>We stayed here one night before attending a concert at Red Rocks Amphitheatre.  Comfortable beds, friendly staff, great breakfast. The room was quiet, which is important to me.  It's conveniently located in a really nice area. I've had great luck with Choice Hotels so far.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r519897363-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>519897363</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>A great value.  Room was very clean. Fridge and microwave was available.  Bed was comfortable and bedding was really nice.. Breakfast was available with eggs, sausage, waffles, and cereals.  All clean and well stocked.  Check in and out was super easy.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r507190406-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>507190406</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>The hotel was very nice. the rooms where very clean. they had an indoor pool and hot tube. The breakfast in the am was good for free! The staff was super nice and helpful. We would stay here again! it is very pet friendly too.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r506725756-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>506725756</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>1st night in Colorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice hotel. Heard about Castle Rock and elected.to spend sometime here to accumulate to the altitude. About 1000 ft higher than Denver. Beautiful views.  Two wonder state parks close by.  The room was great.  Comfort Suites is our go to hotel when traveling, because we enjoy the "living room" space being separated from the bedroom area.Very nice breakfast....standard fare.What makes the difference it the staff. Everyone we came in contact with was welcoming, warm and friendly.Picked up kids at the airport....easy drive. Took us 1 hr 15 min at 10 am. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r503288815-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>503288815</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Nice room and friendly staff!</t>
+  </si>
+  <si>
+    <t>I booked this room for our first night in Colorado during our road trip around the state.  Our plane came in late so we didn't  get to check in until almost midnight.  The front desk was very, very friendly and helpful.  Our room was very clean and we'll appointed.  Breakfast was clean and kept full.  Definitely a nice place to stay.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r494884338-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>494884338</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Very Customer unfriendly</t>
+  </si>
+  <si>
+    <t>Several people in our group reserved rooms here and it started off OK with a friendly front desk clerk and went downhill from thereon.   After one of our guests had an issue and asked to talk to the manager it was apparent the only interest was for the manager to show off his power.  He was so concerned about us knowing he was the manager and he made the rules and that was that.  The rooms were dirty, the hallway hadn't been cleaned forever and instead of switching the guests to a different room the manager told them they'd have to work around the issues of airconditioning not working, noise from the units in two rooms and the stuff spilled on the carpet would be cleaned after they left.  Worst ever customer service by someone who just wanted to feel important.  For the price there are a lot of other choices in the area.  We moved to Best Western across the street for the next months meeting and we very happyMoreShow less</t>
+  </si>
+  <si>
+    <t>Several people in our group reserved rooms here and it started off OK with a friendly front desk clerk and went downhill from thereon.   After one of our guests had an issue and asked to talk to the manager it was apparent the only interest was for the manager to show off his power.  He was so concerned about us knowing he was the manager and he made the rules and that was that.  The rooms were dirty, the hallway hadn't been cleaned forever and instead of switching the guests to a different room the manager told them they'd have to work around the issues of airconditioning not working, noise from the units in two rooms and the stuff spilled on the carpet would be cleaned after they left.  Worst ever customer service by someone who just wanted to feel important.  For the price there are a lot of other choices in the area.  We moved to Best Western across the street for the next months meeting and we very happyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r488602502-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>488602502</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Room for improvement</t>
+  </si>
+  <si>
+    <t>During our road trip in the USA, we were always met by friendly faces and nice conversation at hotel reception desks. This particular hotel proves moody receptionists do exist. A shame really, as the hotel has really nice rooms, okay breakfast, comfy beds and no noise can be heard from the highway. First impressionist count!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r483285707-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>483285707</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Awesome room and customer service.</t>
+  </si>
+  <si>
+    <t>Trip advisor is good so when I reviewed my "go-to" hotel in Castle Rock, Co. people responded...so much I could not get a room! So...we stayed at this Comfort Suites. What an awesome room. with a separate bedroom from the suite part. Large TV. Comfortable furniture and an amazing clean! The linens were great and the bed was comfortable. The breakfast bar in the morning was good. Right off I-25 can't be beat!MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, General Manager at Comfort Suites Castle Rock, responded to this reviewResponded May 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2017</t>
+  </si>
+  <si>
+    <t>Trip advisor is good so when I reviewed my "go-to" hotel in Castle Rock, Co. people responded...so much I could not get a room! So...we stayed at this Comfort Suites. What an awesome room. with a separate bedroom from the suite part. Large TV. Comfortable furniture and an amazing clean! The linens were great and the bed was comfortable. The breakfast bar in the morning was good. Right off I-25 can't be beat!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r468199541-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>468199541</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Clean/Safe for Solo &amp; Family</t>
+  </si>
+  <si>
+    <t>Access to this Choice Hotel is just off I-25 at Castle Rock -  Just minutes South of Littleton/Denver Metro and the DIA. Located in view of the great Rocky Mountains, there are nice eateries nearby, as well as, a very nice shopping area. Room is quiet, clean and very comfortable!</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r466986313-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>466986313</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Manager went above and beyond</t>
+  </si>
+  <si>
+    <t>First of all, this is a fairly new property.  It's maintained very well.  The interior is bright and modern, and it's in an area where you feel perfectly safe.The rooms are very nice with all of the updated furnishings you would expect.What set this property apart for me was the manager.  He was working the front desk alone when I checked in, and had also handled my phone call earlier when I called for price and availability.I don't think I've ever been called "sir" more in my life.  Just really went out of his way to be polite and helpful.When I checked out the next morning he was there again, along with another staff member.  Both of them treated me like family, and it was a great way to start my day.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>First of all, this is a fairly new property.  It's maintained very well.  The interior is bright and modern, and it's in an area where you feel perfectly safe.The rooms are very nice with all of the updated furnishings you would expect.What set this property apart for me was the manager.  He was working the front desk alone when I checked in, and had also handled my phone call earlier when I called for price and availability.I don't think I've ever been called "sir" more in my life.  Just really went out of his way to be polite and helpful.When I checked out the next morning he was there again, along with another staff member.  Both of them treated me like family, and it was a great way to start my day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r431846666-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>431846666</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>While at hospita</t>
+  </si>
+  <si>
+    <t>Wife had shoulder surgery so we went down the day ahead as we live out of state.  They also provide a special rate for patients.  I called down and talked with Debbie and she got us set up.  The surgery went OK but the time is recovery took longer than planned so we planned to stay an extra day and visit the doctor again the next day.  Even with short notice and not much availability Deb took care of us again.  The breakfast bar was well stocked and the attendant stayed on top of any shortages with more food as required.  Had eggs and meat both mornings along with everything else you would expect.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Wife had shoulder surgery so we went down the day ahead as we live out of state.  They also provide a special rate for patients.  I called down and talked with Debbie and she got us set up.  The surgery went OK but the time is recovery took longer than planned so we planned to stay an extra day and visit the doctor again the next day.  Even with short notice and not much availability Deb took care of us again.  The breakfast bar was well stocked and the attendant stayed on top of any shortages with more food as required.  Had eggs and meat both mornings along with everything else you would expect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r418988267-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>418988267</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>No one ever answers the phone at the front desk. It rings so longs then they hang up on you. I got one rate and approved length of stay from one person; asked to speak to a manager to get a Corporate rate (special for a current project in the area that the we were told we would get for working on this project)  One person says they have a room available to extended time frame, another says they are full and then another say can get us one more night when we needed about 2 more months. Stay at Comfort Suites for all of our business travels but not anymore after this ruun around.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>No one ever answers the phone at the front desk. It rings so longs then they hang up on you. I got one rate and approved length of stay from one person; asked to speak to a manager to get a Corporate rate (special for a current project in the area that the we were told we would get for working on this project)  One person says they have a room available to extended time frame, another says they are full and then another say can get us one more night when we needed about 2 more months. Stay at Comfort Suites for all of our business travels but not anymore after this ruun around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r417068345-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>417068345</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Another great experience!!</t>
+  </si>
+  <si>
+    <t>We recently stayed in castle Rock Colorado to visit our daughter and  three grandchildren on our way to Sturgis, of course, our first choice is Comfort Suite, because of Scott.. He makes us feel like we are part of his world, like extended family.. he remember us each time we visit , he is a very busy man, but Always takes his time to visit with us!!! Deb was very pleasant as well and makes us feel right at home!! The young lady that makes the breakfast was very pleasant and went out of her way with a smile to make us full.. ( and on her birthday)... Thank you again Scott and wonderful staff!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>We recently stayed in castle Rock Colorado to visit our daughter and  three grandchildren on our way to Sturgis, of course, our first choice is Comfort Suite, because of Scott.. He makes us feel like we are part of his world, like extended family.. he remember us each time we visit , he is a very busy man, but Always takes his time to visit with us!!! Deb was very pleasant as well and makes us feel right at home!! The young lady that makes the breakfast was very pleasant and went out of her way with a smile to make us full.. ( and on her birthday)... Thank you again Scott and wonderful staff!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r406967444-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>406967444</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Go Elsewhere If Service Is Important To You</t>
+  </si>
+  <si>
+    <t>Bottom line on this stay was that despite an explanation of how important a timely wake up call was (some members of our group had a very early morning flight), no call was ever received.  It not only wasn't received late, it simply wasn't received at all.  Honestly the young woman working the desk just didn't seem to care.  If not for our own cell phones, they would have missed their flights.   The daytime staff were excellent.  The hotel is modern and comfortable.  The housekeepers were very good.  All that said, there is no way I can convey how little the overnight staff seemed to care.  Once we got our members on the flight, we decided to move elsewhere.  We won't be staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bottom line on this stay was that despite an explanation of how important a timely wake up call was (some members of our group had a very early morning flight), no call was ever received.  It not only wasn't received late, it simply wasn't received at all.  Honestly the young woman working the desk just didn't seem to care.  If not for our own cell phones, they would have missed their flights.   The daytime staff were excellent.  The hotel is modern and comfortable.  The housekeepers were very good.  All that said, there is no way I can convey how little the overnight staff seemed to care.  Once we got our members on the flight, we decided to move elsewhere.  We won't be staying again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r402057294-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>402057294</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Pick this Hotel!</t>
+  </si>
+  <si>
+    <t>What a fantastic place!!  It was clean, very comfortable, and incredibly accommodating!  For one reason or another, we seemed a bit "needy" that night (3 calls to the front desk) and the lady at the desk was on point!  She got us absolutely everything we needed AND even sent a few more.   We never saw her without a smile either.  We are so impressed and I wish I would have gotten her name.  The breakfast was a typical continental breakfast and the employee working the center was sure to keep everything stocked. Managers - please know you have a wonderful staff and if we are that way again, we won't stay anywhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>What a fantastic place!!  It was clean, very comfortable, and incredibly accommodating!  For one reason or another, we seemed a bit "needy" that night (3 calls to the front desk) and the lady at the desk was on point!  She got us absolutely everything we needed AND even sent a few more.   We never saw her without a smile either.  We are so impressed and I wish I would have gotten her name.  The breakfast was a typical continental breakfast and the employee working the center was sure to keep everything stocked. Managers - please know you have a wonderful staff and if we are that way again, we won't stay anywhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r393040349-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>393040349</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Nice stay - would've been perfect if given upper floor as requested</t>
+  </si>
+  <si>
+    <t>Located about 25 minutes South of the southern junction of I-225 and I-25, in a beautiful area. Good location a couple of minutes off of I-25, in an area of hotels and retail businesses. Hotel looks very nice, newer, nicely landscaped, clean and cozy. Checked in by cheerful desk clerk, she apologized for not being able to give me upper floor room. My King Room was nicely appointed and clean, average sized, stank of the usual cigarette smell but only mildly. The bed and pillows were very comfortable and I slept well, despite some random stomping by the guest above me. Nice hot shower and in-room coffee preceded a delicious, filling breakfast in the morning. Price paid average for area. If you're traveling between Denver and Colorado Springs, I recommend this place as a good stopover.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Located about 25 minutes South of the southern junction of I-225 and I-25, in a beautiful area. Good location a couple of minutes off of I-25, in an area of hotels and retail businesses. Hotel looks very nice, newer, nicely landscaped, clean and cozy. Checked in by cheerful desk clerk, she apologized for not being able to give me upper floor room. My King Room was nicely appointed and clean, average sized, stank of the usual cigarette smell but only mildly. The bed and pillows were very comfortable and I slept well, despite some random stomping by the guest above me. Nice hot shower and in-room coffee preceded a delicious, filling breakfast in the morning. Price paid average for area. If you're traveling between Denver and Colorado Springs, I recommend this place as a good stopover.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r374194029-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>374194029</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Another wonderful stay..</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel because when I stay,  Scott is always so kind and gives me his best!!!  I appreciate all he does to make my stay a really good one, of course when visiting my daughter and family in August, Comfort Inn and  Suites will be my only choice... Thank you Scott!!!</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r344383032-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>344383032</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>The best of those 4 hotels right there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've been to Castle Rock a few times and I've stayed at the holiday inn express, hampton, and this Comfort Inn Suites is by far the best of those 4 hotels off I-25 right there. The front desk is fast, helpful, and courteous. The rooms are always immaculate here and I've never had a problem. I just always go straight here when I visit now. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r338770150-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>338770150</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Nice n comfortable; we'll be back!</t>
+  </si>
+  <si>
+    <t>Great bed; nice attractive room. They have an indoor, heated pool and spa! We appreciated the free wifi. and the in-room conveniences. We overslept, so can't rate the breakfast!  It's conveniently located right off the freeway ( I-25), and near the outlet center.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r333951119-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>333951119</t>
+  </si>
+  <si>
+    <t>12/19/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, quiet and friendly </t>
+  </si>
+  <si>
+    <t>Can't beat the price, and you get breakfast. Staff were very helpful for extra towels, bedding, and so on. Room was clean, quiet,  and cool. A perfect stay. And now I have to add words so it will post.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r313627032-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>313627032</t>
+  </si>
+  <si>
+    <t>09/25/2015</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott day manager is very friendly. He answered my questions.  He helped me get to the airport.  The night manager was helpful as well.  The hotel was clean and nice.   I will stay here two more times in the next month.  They had a Coke machine.  I ordered pizza from Dominoes.  </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r307472276-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>307472276</t>
+  </si>
+  <si>
+    <t>09/06/2015</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a bad hotel but in need of a little tlc. The door to our bathroom did not latch and the backside of the bathroom door was rather dirty. Granted I'm sure the housekeeping did not think to check there but keep in mind that is what the guest primarily sees. The bed was average and the pillows were fine. Overall not a terrible stay but not fantastic either. We also noticed 3 cigarette butts in the hallways during our one night stay even though they proudly state every where they are a 100% smoke free hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r306495406-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>306495406</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>I chose this hotel as I wanted to be a little south of Denver to avoid some of the traffic. The hotel was very nice and the room was great. My spouse nor I had any issues during our stay. The bed was extremely comfortable and the pillows plump and comfortable. I had problems getting up in the morning since I was sleeping so good and the sheet and comforter did not want to peel away from me (they were so soft). The breakfast was good and fresh. The staff was cordial and promptly checked us in when we arrived and the check out was quick. All in all, a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I chose this hotel as I wanted to be a little south of Denver to avoid some of the traffic. The hotel was very nice and the room was great. My spouse nor I had any issues during our stay. The bed was extremely comfortable and the pillows plump and comfortable. I had problems getting up in the morning since I was sleeping so good and the sheet and comforter did not want to peel away from me (they were so soft). The breakfast was good and fresh. The staff was cordial and promptly checked us in when we arrived and the check out was quick. All in all, a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r304671238-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>304671238</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>a good place to stay for a night or two. did not try to use the wifi.</t>
+  </si>
+  <si>
+    <t>Loved the space in the room. Plenty of counter space. Room was clean as hotel rooms go. Desk clerk very friendly and helpful in recommending a restaurant to eat at. Would have had a great view of the mountains except for the smoke blowing in from the California fires. Not close to I-25, so the noise level was low.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r298850407-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>298850407</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Best price in Denver Metro</t>
+  </si>
+  <si>
+    <t>All of Denver Metro high priced for last week of summer. This hotel was priced at normal rate.  Pleasant staff, average breakfast. Needed a night light in bathroom.  Air conditioner difficult to moderate.  Overall a good place to stay. Plenty of parking which is a plus.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r298522470-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>298522470</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Not good for business travel</t>
+  </si>
+  <si>
+    <t>I recently stayed here for a week and had to work the entire time.  Their wifi capability is terrible.  They should not be able to advertise free wifi because it doesn't work well enough to say they even have it.  I asked for a cable to be able to connect directly and was told that doesn't work at all because they took that capability out.  I will not stay there again.  There is a hotel across the street that I could sit in my car and use their wifi or I had to go Starbucks.  The location was excellent, but I'd stay somewhere else next time. The cleaning staff was loud and unprofessional.  They were very nice to me, but when they didn't know I was in the room and could hear them, they talked about things they shouldn't have been.  They were loud, gossiping about a co-worker and using foul language.  Not what I'd call classy at all. Breakfast was very basic as I expected, but they were out of coffee one morning.  I had to work out in the room because the equipment provided was very basic.  When doing my workout, I found all sorts of junk on the floor that had not been cleaned up.  Pretty nasty.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I recently stayed here for a week and had to work the entire time.  Their wifi capability is terrible.  They should not be able to advertise free wifi because it doesn't work well enough to say they even have it.  I asked for a cable to be able to connect directly and was told that doesn't work at all because they took that capability out.  I will not stay there again.  There is a hotel across the street that I could sit in my car and use their wifi or I had to go Starbucks.  The location was excellent, but I'd stay somewhere else next time. The cleaning staff was loud and unprofessional.  They were very nice to me, but when they didn't know I was in the room and could hear them, they talked about things they shouldn't have been.  They were loud, gossiping about a co-worker and using foul language.  Not what I'd call classy at all. Breakfast was very basic as I expected, but they were out of coffee one morning.  I had to work out in the room because the equipment provided was very basic.  When doing my workout, I found all sorts of junk on the floor that had not been cleaned up.  Pretty nasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r286841820-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>286841820</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Nasty housekeeping and unprofessional staff</t>
+  </si>
+  <si>
+    <t>Horrible Horrible!!!!!Had blood and urine on sheet! Staff was very unprofessional we listened to the night shift ladies curse and complain about visitors, not having enough sheets to change out bedding and general manager Scott for over 5 minutes before we had to yell back in the room to them for help! Washer broke down and never once did they put a out of order sign on the machine I had to let other guest know it was not working! The general manager needs to learn some hospitality, myself and other family members walked by him 8 or more times and not once did he say anything to any of us. Also while leaving room to checkout we ran into the housekeeper who had her children (under the age of 10) cleaning rooms for her! This place does not care about guest or quality of housekeeping and it shows!!! I recommend to everyone stay away from this hotel go to the holiday inn across the road they took us in after we refused to stay at the comfort inn any longer and it was the best decision we made! I will be calling health department, labor department and BBB to let them know what we found!MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, General Manager at Comfort Suites Castle Rock, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Horrible Horrible!!!!!Had blood and urine on sheet! Staff was very unprofessional we listened to the night shift ladies curse and complain about visitors, not having enough sheets to change out bedding and general manager Scott for over 5 minutes before we had to yell back in the room to them for help! Washer broke down and never once did they put a out of order sign on the machine I had to let other guest know it was not working! The general manager needs to learn some hospitality, myself and other family members walked by him 8 or more times and not once did he say anything to any of us. Also while leaving room to checkout we ran into the housekeeper who had her children (under the age of 10) cleaning rooms for her! This place does not care about guest or quality of housekeeping and it shows!!! I recommend to everyone stay away from this hotel go to the holiday inn across the road they took us in after we refused to stay at the comfort inn any longer and it was the best decision we made! I will be calling health department, labor department and BBB to let them know what we found!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r285945996-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>285945996</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>DON'T STAY IF YOU NEED INTERNET!!!!</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed at this hotel for 5 nights. The room was alright for the rate that we paid but I would not pay full price. Our room was pretty clean but there was mold on the bottom of our shower curtain, stains on the towels and a booger on our TV stand! Internet didn't work whatsoever so I had to find wifi elsewhere. When I asked about the wifi issues, I was told that they were in the process of switching companies and that it should be fixed within two weeks. In the meantime, the front desk told me that I should contact THEIR internet provider (Ovation) and get it worked out with them. I don't believe a paying guest should have to "figure out" how to get wifi at the hotel they are staying at.MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed at this hotel for 5 nights. The room was alright for the rate that we paid but I would not pay full price. Our room was pretty clean but there was mold on the bottom of our shower curtain, stains on the towels and a booger on our TV stand! Internet didn't work whatsoever so I had to find wifi elsewhere. When I asked about the wifi issues, I was told that they were in the process of switching companies and that it should be fixed within two weeks. In the meantime, the front desk told me that I should contact THEIR internet provider (Ovation) and get it worked out with them. I don't believe a paying guest should have to "figure out" how to get wifi at the hotel they are staying at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r282455138-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>282455138</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Stayed here after arriving in Colo.</t>
+  </si>
+  <si>
+    <t>Our ext family stayed here after arriving very late into the Denver Airport. About 55 min from airport. The hotel was sold out we had reservations desk clerk went out of his way to make sure we were comfortable. All the staff were very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r275842853-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>275842853</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>Internet was an issue</t>
+  </si>
+  <si>
+    <t>Could have got an excellent rating except we have considerable problems with the internet - call the 800 number but they were for no use.  Nice sleep - very quiet room.  Typical Comfort Inn breakfast - good selection of fresh fruit.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r271026034-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>271026034</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Appalled at the lack of customer service.</t>
+  </si>
+  <si>
+    <t>This place is absolutely terrible. Customer service was non existent, and if there was a front desk associate that actually was behind the desk, they were crude, rude and disrespectful. And when I finally got to talk to someone in charge, his name was Scott, and he was not of any service to me at all. Basically left me to fend for myself. Dirty rooms with a horrific odor, poor quality food and hotel needs updating. Stay away!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r268156179-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>268156179</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>The worst experience at a hotel my family has ever had.</t>
+  </si>
+  <si>
+    <t>The front desk were no help at all. They said they had a handicaped accessible room available and booked it. When I got there, they said that they had to give it away for some rediculous reason. I had asked to refund us and cancel but they said that was impossible and that we would still be charged. Then, while staying there, we noticed a horrible smell and the room seemed to have barely been cleaned at all. Coffe pot and TV was broken and the heater hardly worked and blew out a smoke, burnt, type of smell.  The front desk guy Scott, was so rude and would not accomidate or help us at all. Everytime we needed something he would tell us to come down and get it, and just had no sense of customer service skills and just seemed to hate his job and life. Be warned, do not stay there. The family that iwns it also owns  the Days Inn behind it. Wouldnt stay there eitherMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, General Manager at Comfort Suites Castle Rock, responded to this reviewResponded April 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2015</t>
+  </si>
+  <si>
+    <t>The front desk were no help at all. They said they had a handicaped accessible room available and booked it. When I got there, they said that they had to give it away for some rediculous reason. I had asked to refund us and cancel but they said that was impossible and that we would still be charged. Then, while staying there, we noticed a horrible smell and the room seemed to have barely been cleaned at all. Coffe pot and TV was broken and the heater hardly worked and blew out a smoke, burnt, type of smell.  The front desk guy Scott, was so rude and would not accomidate or help us at all. Everytime we needed something he would tell us to come down and get it, and just had no sense of customer service skills and just seemed to hate his job and life. Be warned, do not stay there. The family that iwns it also owns  the Days Inn behind it. Wouldnt stay there eitherMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r260885511-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>260885511</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was comfortable, some light came under the door and you could hear people in the hallway. No guide for the TV so didn't watch it but the need was very comfortable. I am allergic to chlorine and thought that would be a problem since I was next to the pool but I couldn't smell it from my room.  Overall, I would stay here again. </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r258385222-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>258385222</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>5 Star Place</t>
+  </si>
+  <si>
+    <t>Nice place.  It was easy to get to from interstate.  The room was large, clean and nice couch for watching TV.  We had pets and the staff were great.  They just had a weekend of crazy renters with kids and pets.  They looked tired.  There were some residents whom said the staff were great and tried to control the loud families.  Glad I was not there.  The staff waived our pet fee as they saw we cleaned up spots outside from other pet owners that were neglectful.  The room was large (asked for king bed), had windows that opened outside and was comfy.  We were travelling 4 days from Arizona home to Canada.  The snowfall had made it difficult to walk our pets, but we found enough room in the area for walks.  I would stay here again next time..MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice place.  It was easy to get to from interstate.  The room was large, clean and nice couch for watching TV.  We had pets and the staff were great.  They just had a weekend of crazy renters with kids and pets.  They looked tired.  There were some residents whom said the staff were great and tried to control the loud families.  Glad I was not there.  The staff waived our pet fee as they saw we cleaned up spots outside from other pet owners that were neglectful.  The room was large (asked for king bed), had windows that opened outside and was comfy.  We were travelling 4 days from Arizona home to Canada.  The snowfall had made it difficult to walk our pets, but we found enough room in the area for walks.  I would stay here again next time..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r258295977-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>258295977</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Average but would stay at again</t>
+  </si>
+  <si>
+    <t>We spent 3 day here and the room was nice and clean. The food for breakfast was average but met the need. The pool area and hot tub need some attention but the kids had some fun. It would have been good to know when we checked in that the gym across the street was accessible to persons staying at the hotel but no one told us that until we checked out. So if you want to get some gym time in ask about it. The location was great and there is plenty of food and shopping around if that is important. Would stay here again if back in the area. The wifi was not worth anything more then checking the email if you could get on it at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>We spent 3 day here and the room was nice and clean. The food for breakfast was average but met the need. The pool area and hot tub need some attention but the kids had some fun. It would have been good to know when we checked in that the gym across the street was accessible to persons staying at the hotel but no one told us that until we checked out. So if you want to get some gym time in ask about it. The location was great and there is plenty of food and shopping around if that is important. Would stay here again if back in the area. The wifi was not worth anything more then checking the email if you could get on it at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r248153633-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>248153633</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>Needs updating</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because it had connecting rooms. Hotel was dated and really dirty. Wish I would have taken photos. Would recommend Hampton Inn or Best Western which are next store. People were nice but hotel was not. MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, General Manager at Comfort Suites Castle Rock, responded to this reviewResponded January 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because it had connecting rooms. Hotel was dated and really dirty. Wish I would have taken photos. Would recommend Hampton Inn or Best Western which are next store. People were nice but hotel was not. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r243550070-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>243550070</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>A very enjoyable stay</t>
+  </si>
+  <si>
+    <t>Our daughter moved with her family to Castle Rock.  This was really a family reunion since our son and family joined us from CA.  I cannot believe in reading other reviews that we stayed in the same place.  The room was clean; the staff was very attentive; the breakfast was more than adequate for the price of the rooms.  I was very impressed with the mattresses.  We all got a good night's sleep .We like the fact that we can have our two grandchildren with us at night.  The room has a sofa bed.  We are returning for Christmas and will not hesitate to stay at the Comfort Suites whenever we visit Castle Rock.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, General Manager at Comfort Suites Castle Rock, responded to this reviewResponded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Our daughter moved with her family to Castle Rock.  This was really a family reunion since our son and family joined us from CA.  I cannot believe in reading other reviews that we stayed in the same place.  The room was clean; the staff was very attentive; the breakfast was more than adequate for the price of the rooms.  I was very impressed with the mattresses.  We all got a good night's sleep .We like the fact that we can have our two grandchildren with us at night.  The room has a sofa bed.  We are returning for Christmas and will not hesitate to stay at the Comfort Suites whenever we visit Castle Rock.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r242997236-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>242997236</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Second Rate...Maybe Third or Fourth</t>
+  </si>
+  <si>
+    <t>Advertised free breakfast, but it was horrific.  Come 9am it didn't matter if people were in line they took up food and beverages.  If you go swimming just be careful about the rusted chairs.  One of my kids scraped their leg.  Area around the pool had not been cleaned in who knows how long.  Just felt like the ownership and management just didn't care.  Room itself was clean and spacious, however, was very hard to get anyone to clean our room.  The staff person who did come acted like they did not want to be there.  Will go to other hotels in the area next time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r238902475-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>238902475</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Colorado State Beekeepers Association Meeting</t>
+  </si>
+  <si>
+    <t>Both the facilities and rooms were clean. The staff was polite and offered any assistance needed. However the breakfast could be improved. I'm from a family which has two  professional chefs and a pastry chef and my tastes are very different. Food not pre-prepared are my fare. Please provide better quality foods even if from a box or envelope.MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, General Manager at Comfort Suites Castle Rock, responded to this reviewResponded November 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2014</t>
+  </si>
+  <si>
+    <t>Both the facilities and rooms were clean. The staff was polite and offered any assistance needed. However the breakfast could be improved. I'm from a family which has two  professional chefs and a pastry chef and my tastes are very different. Food not pre-prepared are my fare. Please provide better quality foods even if from a box or envelope.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r238680515-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>238680515</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>We stayed here because we were attending a wedding at the nearby Cielo at Castle Pines. We had two adjoined rooms. The rooms appeared clean although there was some random hair popping up on the beds and in the bathroom. They were standard rooms, we slept comfortably.I did think the Marijuana notice on the front counter was odd but maybe it is because they are so extremely close to the police station. The breakfast was standard continental breakfast with an option of hiot waffles, eggs, and sausage.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, General Manager at Comfort Suites Castle Rock, responded to this reviewResponded November 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here because we were attending a wedding at the nearby Cielo at Castle Pines. We had two adjoined rooms. The rooms appeared clean although there was some random hair popping up on the beds and in the bathroom. They were standard rooms, we slept comfortably.I did think the Marijuana notice on the front counter was odd but maybe it is because they are so extremely close to the police station. The breakfast was standard continental breakfast with an option of hiot waffles, eggs, and sausage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r236569366-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>236569366</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Great Value... Great Service... A Well-rested Stay!</t>
+  </si>
+  <si>
+    <t>After another long leg in our trip was complete, we were so glad to have chosen the Comfort Suites. As far as I can tell, it's a new hotel. It was clean and well-kept. We got a great deal on our room coming off the road: $99 for the night in a 2 Queen Suite with a sofa bed. The room was nice, comfortable, clean, and spacious for the four of us. For an overnight stay, we loved it and wished we could have stayed another day or two.To top off our experience, we got great service from Casey, the overnight clerk. He was very friendly and welcoming. And when we asked for a recommendation on a good restaurant, he offered the Rockyard Brewing Company a couple of blocks down. It was a great recommendation. We loved it. Casey was a good guy and made the stay pleasant. I don't know if I'll ever be up this way again. But if I am, I will stay here again thanks to Casey.MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, General Manager at Comfort Suites Castle Rock, responded to this reviewResponded October 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2014</t>
+  </si>
+  <si>
+    <t>After another long leg in our trip was complete, we were so glad to have chosen the Comfort Suites. As far as I can tell, it's a new hotel. It was clean and well-kept. We got a great deal on our room coming off the road: $99 for the night in a 2 Queen Suite with a sofa bed. The room was nice, comfortable, clean, and spacious for the four of us. For an overnight stay, we loved it and wished we could have stayed another day or two.To top off our experience, we got great service from Casey, the overnight clerk. He was very friendly and welcoming. And when we asked for a recommendation on a good restaurant, he offered the Rockyard Brewing Company a couple of blocks down. It was a great recommendation. We loved it. Casey was a good guy and made the stay pleasant. I don't know if I'll ever be up this way again. But if I am, I will stay here again thanks to Casey.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r229050222-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>229050222</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Very nice hotel in a great location. Internet worked great.</t>
+  </si>
+  <si>
+    <t>I noticed in previous reviews that the internet was a problem but either I was there on a good day or they have installed a better system. Everything was very good, among the best Choice hotels I have stayed at recently. Great location, easy to major highways. Tons of shopping / food nearby. The room itself was large, recently updated, comfy and very clean. Friendly and professional staff efficiently processed my check in / out. If I am ever in this area again I will return to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, General Manager at Comfort Suites Castle Rock, responded to this reviewResponded September 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2014</t>
+  </si>
+  <si>
+    <t>I noticed in previous reviews that the internet was a problem but either I was there on a good day or they have installed a better system. Everything was very good, among the best Choice hotels I have stayed at recently. Great location, easy to major highways. Tons of shopping / food nearby. The room itself was large, recently updated, comfy and very clean. Friendly and professional staff efficiently processed my check in / out. If I am ever in this area again I will return to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r224927290-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>224927290</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Beware: Internet Service Does NOT Exist</t>
+  </si>
+  <si>
+    <t>I found the Comfort Suites in Castle Rock, CO very clean with up to date furnishings and friendly, accommodating front desk staff. However, the internet service does NOT exist. No internet service was available during my entire 4 day stay. It seems they are far behind on a modern internet service. You can sign on but there is no internet service available. If you live in 2014 and/or need to access the internet for personal matters or business work, there is NO internet service working at this hotel. Very frustrating and disappointing. Everything else was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, General Manager at Comfort Suites Castle Rock, responded to this reviewResponded August 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2014</t>
+  </si>
+  <si>
+    <t>I found the Comfort Suites in Castle Rock, CO very clean with up to date furnishings and friendly, accommodating front desk staff. However, the internet service does NOT exist. No internet service was available during my entire 4 day stay. It seems they are far behind on a modern internet service. You can sign on but there is no internet service available. If you live in 2014 and/or need to access the internet for personal matters or business work, there is NO internet service working at this hotel. Very frustrating and disappointing. Everything else was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r223626139-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>223626139</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Extented Stay</t>
+  </si>
+  <si>
+    <t>Friendly, clean, great morning breakfast including fresh eggs, muffins, waffles, and sausage every morning.  Swimming pool was fun!  Fitness room was below average; however, the hotel has a deal with the gym right across the street, with child care available.MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly, clean, great morning breakfast including fresh eggs, muffins, waffles, and sausage every morning.  Swimming pool was fun!  Fitness room was below average; however, the hotel has a deal with the gym right across the street, with child care available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r216860881-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>216860881</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Excellent except for Internet, Coffee &amp; Desk Chair</t>
+  </si>
+  <si>
+    <t>We stayed 2 days at this hotel using Priority Club points. This hotel is extremely clean, generous plush towels with a fantastic, helpful staff. We discovered this first hand. When we left I forgot a very important folder with my vacation itinerary, confirmation numbers for hotels and attractions, and restaurant gift cards on the desk in our room. Joanne (I think that was her name) called us while we were on the road to let us know. Since we were about 200 miles down the road, I asked if she would send it to me at my next hotel stop in South Dakota via overnight mail. She did that and I received the package. I can't thank her enough. One thing I really liked in the room were electric outlets at desk top height.  This was in the desk and the bed side tables. I didn't have to crawl on the floor to plug in my lap top or recharge my phone.  That is a bid deal when you are 76 years old. On the down side, if using the internet is important to you, this hotel is not the place for you. I have found this problem in many Comfort Suite hotels. The internet speed was so slow I had to view my email in HTML format and doing any internet surfing was all but impossible. Choice Hotels should rectify this problem ASAP. Also the desk chair did not...We stayed 2 days at this hotel using Priority Club points. This hotel is extremely clean, generous plush towels with a fantastic, helpful staff. We discovered this first hand. When we left I forgot a very important folder with my vacation itinerary, confirmation numbers for hotels and attractions, and restaurant gift cards on the desk in our room. Joanne (I think that was her name) called us while we were on the road to let us know. Since we were about 200 miles down the road, I asked if she would send it to me at my next hotel stop in South Dakota via overnight mail. She did that and I received the package. I can't thank her enough. One thing I really liked in the room were electric outlets at desk top height.  This was in the desk and the bed side tables. I didn't have to crawl on the floor to plug in my lap top or recharge my phone.  That is a bid deal when you are 76 years old. On the down side, if using the internet is important to you, this hotel is not the place for you. I have found this problem in many Comfort Suite hotels. The internet speed was so slow I had to view my email in HTML format and doing any internet surfing was all but impossible. Choice Hotels should rectify this problem ASAP. Also the desk chair did not work. It was at its lowest position and I could not raise it to a comfortable level. We also like to enjoy a cup of coffee after we arrive and in the evening. Every time I came to the lobby to get coffee, the urns were all empty. This is not acceptable. Being retired, we travel quite a lot. We experienced a first at this hotel but I don't know if the hotel can do anything about it. An ignorant guest came to the breakfast room in his bare feet. This could be a health hazard. The person had on a Harley- Davidson t-shirt from Loveland CO. Maybe this is acceptable in CO. I don't know. The bottom line for this hotel is that if you want a very clean comfortable hotel and don't need the internet, this is definitely a good place to stop. I don't think I will return unless the internet speed improves. This is important to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, General Manager at Comfort Suites Castle Rock, responded to this reviewResponded August 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2014</t>
+  </si>
+  <si>
+    <t>We stayed 2 days at this hotel using Priority Club points. This hotel is extremely clean, generous plush towels with a fantastic, helpful staff. We discovered this first hand. When we left I forgot a very important folder with my vacation itinerary, confirmation numbers for hotels and attractions, and restaurant gift cards on the desk in our room. Joanne (I think that was her name) called us while we were on the road to let us know. Since we were about 200 miles down the road, I asked if she would send it to me at my next hotel stop in South Dakota via overnight mail. She did that and I received the package. I can't thank her enough. One thing I really liked in the room were electric outlets at desk top height.  This was in the desk and the bed side tables. I didn't have to crawl on the floor to plug in my lap top or recharge my phone.  That is a bid deal when you are 76 years old. On the down side, if using the internet is important to you, this hotel is not the place for you. I have found this problem in many Comfort Suite hotels. The internet speed was so slow I had to view my email in HTML format and doing any internet surfing was all but impossible. Choice Hotels should rectify this problem ASAP. Also the desk chair did not...We stayed 2 days at this hotel using Priority Club points. This hotel is extremely clean, generous plush towels with a fantastic, helpful staff. We discovered this first hand. When we left I forgot a very important folder with my vacation itinerary, confirmation numbers for hotels and attractions, and restaurant gift cards on the desk in our room. Joanne (I think that was her name) called us while we were on the road to let us know. Since we were about 200 miles down the road, I asked if she would send it to me at my next hotel stop in South Dakota via overnight mail. She did that and I received the package. I can't thank her enough. One thing I really liked in the room were electric outlets at desk top height.  This was in the desk and the bed side tables. I didn't have to crawl on the floor to plug in my lap top or recharge my phone.  That is a bid deal when you are 76 years old. On the down side, if using the internet is important to you, this hotel is not the place for you. I have found this problem in many Comfort Suite hotels. The internet speed was so slow I had to view my email in HTML format and doing any internet surfing was all but impossible. Choice Hotels should rectify this problem ASAP. Also the desk chair did not work. It was at its lowest position and I could not raise it to a comfortable level. We also like to enjoy a cup of coffee after we arrive and in the evening. Every time I came to the lobby to get coffee, the urns were all empty. This is not acceptable. Being retired, we travel quite a lot. We experienced a first at this hotel but I don't know if the hotel can do anything about it. An ignorant guest came to the breakfast room in his bare feet. This could be a health hazard. The person had on a Harley- Davidson t-shirt from Loveland CO. Maybe this is acceptable in CO. I don't know. The bottom line for this hotel is that if you want a very clean comfortable hotel and don't need the internet, this is definitely a good place to stop. I don't think I will return unless the internet speed improves. This is important to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r211108314-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>211108314</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>We stayed for a week. One of the nicest hotels I've ever stayed in.  Staff was awesome and helpful. Just wish there was an outside pool for hot days although the inside pool and hot tub were great. Will definitely stay again if I come back to the beautiful state of Colorado. MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, General Manager at Comfort Suites Castle Rock, responded to this reviewResponded June 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2014</t>
+  </si>
+  <si>
+    <t>We stayed for a week. One of the nicest hotels I've ever stayed in.  Staff was awesome and helpful. Just wish there was an outside pool for hot days although the inside pool and hot tub were great. Will definitely stay again if I come back to the beautiful state of Colorado. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r211017741-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>211017741</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Nice service, lacking shades</t>
+  </si>
+  <si>
+    <t>We stayed in Castle Rock for the Elephant Rock cycling event in early June.  The front desk person was very friendly and accommodating.   I appreciated the use of an outdoor outlet overnight.  We had two ground floor rooms and both had nice sitting areas and comfortable beds.  The directTV was pretty impressive for a hotel and the internet worked very well.  The breakfast area was well stocked but didn't open until 7.  On the downside, the shades were really lacking, it was like trying to sleep with the lights on.  We stayed on the ground floor facing the parking lot so it may have been just our room, but the amount of light coming in the room was much worse than any hotel I've stayed at for a long time. Nice, basic hotel with very good service.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We stayed in Castle Rock for the Elephant Rock cycling event in early June.  The front desk person was very friendly and accommodating.   I appreciated the use of an outdoor outlet overnight.  We had two ground floor rooms and both had nice sitting areas and comfortable beds.  The directTV was pretty impressive for a hotel and the internet worked very well.  The breakfast area was well stocked but didn't open until 7.  On the downside, the shades were really lacking, it was like trying to sleep with the lights on.  We stayed on the ground floor facing the parking lot so it may have been just our room, but the amount of light coming in the room was much worse than any hotel I've stayed at for a long time. Nice, basic hotel with very good service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r204321902-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>204321902</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Awesome place to stay</t>
+  </si>
+  <si>
+    <t>Staff and management were helpful and friendly. Rooms were clean and well stocked.We stayed in one of the large suites and had our grandchildren over for the afternoon. We enjoyed the indoor pool with them. We loved our stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>CastleRockGM, General Manager at Comfort Suites Castle Rock, responded to this reviewResponded May 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2014</t>
+  </si>
+  <si>
+    <t>Staff and management were helpful and friendly. Rooms were clean and well stocked.We stayed in one of the large suites and had our grandchildren over for the afternoon. We enjoyed the indoor pool with them. We loved our stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r203845121-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>203845121</t>
+  </si>
+  <si>
+    <t>05/03/2014</t>
+  </si>
+  <si>
+    <t>Best hotel experience ever</t>
+  </si>
+  <si>
+    <t>We had to go to castle rock for my husband to build a deck for his sister. We have a two year old and a dog and often find it difficult to travel.  The comfort suites,  however,  made our stay warm and welcoming. Our room was clean,  the staff was friendly And helpful,  and the breakfast made us feel at home. We will stay here again for sure. MoreShow less</t>
+  </si>
+  <si>
+    <t>CastleRockGM, General Manager at Comfort Suites Castle Rock, responded to this reviewResponded May 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2014</t>
+  </si>
+  <si>
+    <t>We had to go to castle rock for my husband to build a deck for his sister. We have a two year old and a dog and often find it difficult to travel.  The comfort suites,  however,  made our stay warm and welcoming. Our room was clean,  the staff was friendly And helpful,  and the breakfast made us feel at home. We will stay here again for sure. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r199706460-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>199706460</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>Comfort Suites Catle Rock</t>
+  </si>
+  <si>
+    <t>I have stayed here a few times in the past.  I've always been fine with the property or else I wouldn't keep staying here.  Since the last time I stayed here they have upgraded a few things which is the reason for the review.  My room had new carpet which is really nice.Breakfast is standard for a mid priced motel, choice of cereals, yogurt, make it yourself waffles, etc.Personally, I like it hereMoreShow less</t>
+  </si>
+  <si>
+    <t>CastleRockGM, Manager at Comfort Suites Castle Rock, responded to this reviewResponded April 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed here a few times in the past.  I've always been fine with the property or else I wouldn't keep staying here.  Since the last time I stayed here they have upgraded a few things which is the reason for the review.  My room had new carpet which is really nice.Breakfast is standard for a mid priced motel, choice of cereals, yogurt, make it yourself waffles, etc.Personally, I like it hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r179403133-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>179403133</t>
+  </si>
+  <si>
+    <t>10/01/2013</t>
+  </si>
+  <si>
+    <t>Very nice hotel and pet friendly</t>
+  </si>
+  <si>
+    <t>It was a welcome relief to stay at a nice pet friendly hotel. Some hotels we had to stay in, because they were the only ones that allowed three dogs, were less than comfortable. The Comfort Suites is updated, very clean, had good beds and pillows and felt like home.  Plus it was reasonably priced! We appreciate a hotel chain that allows us to travel with our dogs comfortably.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, Manager at Comfort Suites Castle Rock, responded to this reviewResponded October 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2013</t>
+  </si>
+  <si>
+    <t>It was a welcome relief to stay at a nice pet friendly hotel. Some hotels we had to stay in, because they were the only ones that allowed three dogs, were less than comfortable. The Comfort Suites is updated, very clean, had good beds and pillows and felt like home.  Plus it was reasonably priced! We appreciate a hotel chain that allows us to travel with our dogs comfortably.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r178765491-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>178765491</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>The bed was comfortable</t>
+  </si>
+  <si>
+    <t>It was a short stay. We got their at 7:20pm, very tired after driving 11 and a half hours. The room appeared clean and the bed was comfortable. We were up early, had breakfast and gone by 6:30am. The powdered eggs are tasteless, the sausage ok and the waffles nice. No flavored creamer for your coffee, that was a big disappointment. The front desk people were ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, Manager at Comfort Suites Castle Rock, responded to this reviewResponded October 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2013</t>
+  </si>
+  <si>
+    <t>It was a short stay. We got their at 7:20pm, very tired after driving 11 and a half hours. The room appeared clean and the bed was comfortable. We were up early, had breakfast and gone by 6:30am. The powdered eggs are tasteless, the sausage ok and the waffles nice. No flavored creamer for your coffee, that was a big disappointment. The front desk people were ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r178764164-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>178764164</t>
+  </si>
+  <si>
+    <t>one night stay</t>
+  </si>
+  <si>
+    <t>I stayed for one night but ended up staying for two. My room was great, had a view of the mountain, it was right off I25 and it was waking distance to pub that served great food. The room was clean , the staff was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for one night but ended up staying for two. My room was great, had a view of the mountain, it was right off I25 and it was waking distance to pub that served great food. The room was clean , the staff was friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r169520248-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>169520248</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>The bed was good and the staff was nice</t>
+  </si>
+  <si>
+    <t>We reserved two suites for our family group or 9 (3 adults and 6 kids). Room 120 had no problems at all.
+Room 134, on the other hand.....the door looked like it had been kicked in at some point, and the knob part of the security lock (the part on the door itself) was missing. When I mentioned it to the guy at the front desk he quickly came and replaced it. Then we unfolded the pullout couch and discovered all the springs were missing and the mattress fell down through it. Again, the guy came and promptly brought a roll away bed. The toilet did not flush well and we were told they have poor water pressure. Wallpaper was peeling in some areas, stains in others. It's definitely in need of a cosmetic upgrade. The next morning our bill reflected the cost of the rollaway and when I talked to the man at the front desk he removed that charge, since we had intended to use the broken couch bed, and also removed the charge for the roll away in the other room, which he had ordered. 
+The beds were very comfortable, and the staff was helpful. When we checked in at 7 pm there was one guy working the desk and he was the only one working. When we checked out the next morning at 9, there was one guy working and that was it. He was setting...We reserved two suites for our family group or 9 (3 adults and 6 kids). Room 120 had no problems at all.Room 134, on the other hand.....the door looked like it had been kicked in at some point, and the knob part of the security lock (the part on the door itself) was missing. When I mentioned it to the guy at the front desk he quickly came and replaced it. Then we unfolded the pullout couch and discovered all the springs were missing and the mattress fell down through it. Again, the guy came and promptly brought a roll away bed. The toilet did not flush well and we were told they have poor water pressure. Wallpaper was peeling in some areas, stains in others. It's definitely in need of a cosmetic upgrade. The next morning our bill reflected the cost of the rollaway and when I talked to the man at the front desk he removed that charge, since we had intended to use the broken couch bed, and also removed the charge for the roll away in the other room, which he had ordered. The beds were very comfortable, and the staff was helpful. When we checked in at 7 pm there was one guy working the desk and he was the only one working. When we checked out the next morning at 9, there was one guy working and that was it. He was setting up the breakfast room, keeping it clean, checking people out, etc. WAY understaffed, but again, the staff did a great job under the conditions.The pool/hot tub area and the fitness room were both clean, although a little small. The breakfast room was clean and it was typical Choice Hotel hot breakfast - powdered eggs, sausage, a waffle maker (although they had two flavors of waffles which was a nice surprise), yogurt, cereals, boiled eggs, etc. The rooms were both clean, just in need of an update.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, Manager at Comfort Suites Castle Rock, responded to this reviewResponded July 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2013</t>
+  </si>
+  <si>
+    <t>We reserved two suites for our family group or 9 (3 adults and 6 kids). Room 120 had no problems at all.
+Room 134, on the other hand.....the door looked like it had been kicked in at some point, and the knob part of the security lock (the part on the door itself) was missing. When I mentioned it to the guy at the front desk he quickly came and replaced it. Then we unfolded the pullout couch and discovered all the springs were missing and the mattress fell down through it. Again, the guy came and promptly brought a roll away bed. The toilet did not flush well and we were told they have poor water pressure. Wallpaper was peeling in some areas, stains in others. It's definitely in need of a cosmetic upgrade. The next morning our bill reflected the cost of the rollaway and when I talked to the man at the front desk he removed that charge, since we had intended to use the broken couch bed, and also removed the charge for the roll away in the other room, which he had ordered. 
+The beds were very comfortable, and the staff was helpful. When we checked in at 7 pm there was one guy working the desk and he was the only one working. When we checked out the next morning at 9, there was one guy working and that was it. He was setting...We reserved two suites for our family group or 9 (3 adults and 6 kids). Room 120 had no problems at all.Room 134, on the other hand.....the door looked like it had been kicked in at some point, and the knob part of the security lock (the part on the door itself) was missing. When I mentioned it to the guy at the front desk he quickly came and replaced it. Then we unfolded the pullout couch and discovered all the springs were missing and the mattress fell down through it. Again, the guy came and promptly brought a roll away bed. The toilet did not flush well and we were told they have poor water pressure. Wallpaper was peeling in some areas, stains in others. It's definitely in need of a cosmetic upgrade. The next morning our bill reflected the cost of the rollaway and when I talked to the man at the front desk he removed that charge, since we had intended to use the broken couch bed, and also removed the charge for the roll away in the other room, which he had ordered. The beds were very comfortable, and the staff was helpful. When we checked in at 7 pm there was one guy working the desk and he was the only one working. When we checked out the next morning at 9, there was one guy working and that was it. He was setting up the breakfast room, keeping it clean, checking people out, etc. WAY understaffed, but again, the staff did a great job under the conditions.The pool/hot tub area and the fitness room were both clean, although a little small. The breakfast room was clean and it was typical Choice Hotel hot breakfast - powdered eggs, sausage, a waffle maker (although they had two flavors of waffles which was a nice surprise), yogurt, cereals, boiled eggs, etc. The rooms were both clean, just in need of an update.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r167735713-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>167735713</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Awesome availability and a great room!</t>
+  </si>
+  <si>
+    <t>I am over the road trucker and stopped to get a hotel last minute and was well accommodated! Check in was a breeze and was in room before I knew it! Nice room, service and people! The price was the same as surrounding areas and was in a good location! I would stay here again in a heartbeat! MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, Manager at Comfort Suites Castle Rock, responded to this reviewResponded July 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2013</t>
+  </si>
+  <si>
+    <t>I am over the road trucker and stopped to get a hotel last minute and was well accommodated! Check in was a breeze and was in room before I knew it! Nice room, service and people! The price was the same as surrounding areas and was in a good location! I would stay here again in a heartbeat! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r165618393-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>165618393</t>
+  </si>
+  <si>
+    <t>06/28/2013</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>We had come into town late at night just got off a plane there were no rooms around had to take a suite because of the fires but really enjoyed it. The room was great it was nice to be able to relax after a long trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We had come into town late at night just got off a plane there were no rooms around had to take a suite because of the fires but really enjoyed it. The room was great it was nice to be able to relax after a long trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r158500945-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>158500945</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>On a recent trip to Colorado, we booked a hotel in the Castle Rock area due to the distance to Denver and the outlet shops at Castle Rock.   Hotel was very nice, rooms were clean.  The hotel wasn't busy so we didn't have any issues with noise, etc.  Our only issue with this hotel is that their breakfast if not very good.  Very basic items - and having a diabetic in our family, there wasn't anything he could eat.  Mostly pastry stuff and cereals.   They are pet friendly even though its very limited on places to walk your pet.  The hot tub and pool were a huge hit with our family; basically the only ones using it during our stay.  Front desk girls were friendly and always willing to get us what we needed.  We got the 2 room quite suite and it was VERY spacious - especially with 4 adults and a dog.  LOTS of room for everyone to move around.   We would definitley stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, Manager at Comfort Suites Castle Rock, responded to this reviewResponded May 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2013</t>
+  </si>
+  <si>
+    <t>On a recent trip to Colorado, we booked a hotel in the Castle Rock area due to the distance to Denver and the outlet shops at Castle Rock.   Hotel was very nice, rooms were clean.  The hotel wasn't busy so we didn't have any issues with noise, etc.  Our only issue with this hotel is that their breakfast if not very good.  Very basic items - and having a diabetic in our family, there wasn't anything he could eat.  Mostly pastry stuff and cereals.   They are pet friendly even though its very limited on places to walk your pet.  The hot tub and pool were a huge hit with our family; basically the only ones using it during our stay.  Front desk girls were friendly and always willing to get us what we needed.  We got the 2 room quite suite and it was VERY spacious - especially with 4 adults and a dog.  LOTS of room for everyone to move around.   We would definitley stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r157025815-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>157025815</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Good value, comfortable room</t>
+  </si>
+  <si>
+    <t>We were in town for an Irish dance competition and we have stayed at this hotel several times before. It's always a pleasant experience. Hot breakfast and free internet are always welcome. The rooms were pleasant and comfortable, and smoke free, which is nice. It's conveniently located near the highway and the Rockyard Brewery, where we love to have dinner when we're in town. This is a nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>We were in town for an Irish dance competition and we have stayed at this hotel several times before. It's always a pleasant experience. Hot breakfast and free internet are always welcome. The rooms were pleasant and comfortable, and smoke free, which is nice. It's conveniently located near the highway and the Rockyard Brewery, where we love to have dinner when we're in town. This is a nice place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r154503239-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>154503239</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>GOOD HOTEL</t>
+  </si>
+  <si>
+    <t>The rooms were large, and like most Comfort Suites, had a separate sitting area. The room was very clean. The staff made us feel special. The breakfast not so good. The eggs had been setting out for some time and were dried out. We got in late, but thanks to GPS were able to find it. It washardto find.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, Manager at Comfort Suites Castle Rock, responded to this reviewResponded April 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2013</t>
+  </si>
+  <si>
+    <t>The rooms were large, and like most Comfort Suites, had a separate sitting area. The room was very clean. The staff made us feel special. The breakfast not so good. The eggs had been setting out for some time and were dried out. We got in late, but thanks to GPS were able to find it. It washardto find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r148552679-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>148552679</t>
+  </si>
+  <si>
+    <t>01/01/2013</t>
+  </si>
+  <si>
+    <t>Great value at a reasonable rate</t>
+  </si>
+  <si>
+    <t>We loved this hotel.  It definitely had elements of luxury for us.  Especially after making the mistake of spending the first night in the Days Inn &amp; Suites right next door which had offered a $55 "deal".  It was no deal.  Stay here instead!  Our room was $79 with AAA discount.  It had good pillows, comfy bed, attractive room with small sitting area separated from the bed area by a granite topped partition.  A hot breakfast, good pool, exercise room, "business center" with a computer, all the amenities.  Fast hassle-free check-in; didn't have to fill out any forms.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, Manager at Comfort Suites Castle Rock, responded to this reviewResponded February 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2013</t>
+  </si>
+  <si>
+    <t>We loved this hotel.  It definitely had elements of luxury for us.  Especially after making the mistake of spending the first night in the Days Inn &amp; Suites right next door which had offered a $55 "deal".  It was no deal.  Stay here instead!  Our room was $79 with AAA discount.  It had good pillows, comfy bed, attractive room with small sitting area separated from the bed area by a granite topped partition.  A hot breakfast, good pool, exercise room, "business center" with a computer, all the amenities.  Fast hassle-free check-in; didn't have to fill out any forms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r148231667-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>148231667</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>my stay</t>
+  </si>
+  <si>
+    <t>Clean, comfortable bed, quick access to Englewood off I-25. Good hot breakfast. Definitely recommend to all my friends. Also has many restaurants close by and the Castle Rock Outlet mall is very close with many shops to choose from.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean, comfortable bed, quick access to Englewood off I-25. Good hot breakfast. Definitely recommend to all my friends. Also has many restaurants close by and the Castle Rock Outlet mall is very close with many shops to choose from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r147902455-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>147902455</t>
+  </si>
+  <si>
+    <t>12/22/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Checked in with Steve who got us a room quickly as we didn't have reservations. He gave us the option to leave the pool and hot tub open longer as it was ready to close when we arrived. Very clean, quiet room. Comfortable beds and great breakfast. Very happy with the overall experience. (:MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked in with Steve who got us a room quickly as we didn't have reservations. He gave us the option to leave the pool and hot tub open longer as it was ready to close when we arrived. Very clean, quiet room. Comfortable beds and great breakfast. Very happy with the overall experience. (:More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r145705484-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>145705484</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>Very friendly &amp; helpful staff.  Needed to make many changes and found everyone most accomodating.  Rooms very clean &amp; quiet.  Breakfast was added bonus when in a hurry.  We had two rooms for the first 4 nights then one room for two more days then we needed another room for the remainder of our stay which lasted for three more nights.  We wound up back again for two more nights. All the time the stay and staff were attentive to our needs which made it very relaxing during a very stressful time for us all.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r143283133-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>143283133</t>
+  </si>
+  <si>
+    <t>10/20/2012</t>
+  </si>
+  <si>
+    <t>Somewhat Disappointed</t>
+  </si>
+  <si>
+    <t>My wife and sons stayed here in October 2012. I had reviewed this hotel on tripadvisor before making the reservation. Being rated number 2 in Castle Rock, I expected more. We had a 2 queen suite with sofa bed. One son was ging to sleep on sofa bed - not after we opened it. The mattress pad was honestly filthy. It obviously hadn't been changed in quite some time. The springs were broken. Needless to say, he did not sleep on it. The linen on the beds were stained with something. Looked like maybe the washer they were washed in had some grease or something in it. The towels in the bathroom were very dingy. You expect white towels in hotels to sometimes have stains. These were older and dingy - gray shaded. Cleanliness of the room was okay. Furnishings were older, but appeared to be in good shape. Breakfast was okay. The eggs were not that great, but, eggs in hotels aren't very flavorful. Check-in was good, polite clerk. Overall, the stay was average or below. Seeing the mattress pad on the sofa bed set the tone. If that pad didn't get changed, what else in the room has not been changed regularly? Obviously housekeeping not really giving a good cleaning.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>My wife and sons stayed here in October 2012. I had reviewed this hotel on tripadvisor before making the reservation. Being rated number 2 in Castle Rock, I expected more. We had a 2 queen suite with sofa bed. One son was ging to sleep on sofa bed - not after we opened it. The mattress pad was honestly filthy. It obviously hadn't been changed in quite some time. The springs were broken. Needless to say, he did not sleep on it. The linen on the beds were stained with something. Looked like maybe the washer they were washed in had some grease or something in it. The towels in the bathroom were very dingy. You expect white towels in hotels to sometimes have stains. These were older and dingy - gray shaded. Cleanliness of the room was okay. Furnishings were older, but appeared to be in good shape. Breakfast was okay. The eggs were not that great, but, eggs in hotels aren't very flavorful. Check-in was good, polite clerk. Overall, the stay was average or below. Seeing the mattress pad on the sofa bed set the tone. If that pad didn't get changed, what else in the room has not been changed regularly? Obviously housekeeping not really giving a good cleaning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r140850501-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>140850501</t>
+  </si>
+  <si>
+    <t>09/21/2012</t>
+  </si>
+  <si>
+    <t>Great Breakfast</t>
+  </si>
+  <si>
+    <t>We stayed in our local Comfort Suites as we were having work done at our house.  The breakfast and accomodations were great for our needs and we were able to do our daily activities including school, work, etc with much less inconvenience than we expected.  The breakfast and pool were great and the kids, even though we did not have much time, benefitted.  We would do it again and will have friends and family stay here when they come to visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>We stayed in our local Comfort Suites as we were having work done at our house.  The breakfast and accomodations were great for our needs and we were able to do our daily activities including school, work, etc with much less inconvenience than we expected.  The breakfast and pool were great and the kids, even though we did not have much time, benefitted.  We would do it again and will have friends and family stay here when they come to visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r137400994-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>137400994</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>Very happy with my stay.</t>
+  </si>
+  <si>
+    <t>I stayed 6 nights here while taking a class near Littleton.  I did not have a pet along, but was thrilled that it was a pet-friendly hotel.  Super helpful at the front desk.  Great breakfast.  Clean rooms.  I moved out of my first room because it smelled a bit like cigarette smoke, but it was no problem to move.  The pool is small but I wasn't staying there for the pool.  Fabulous to have microwave &amp; fridge in the room.  Clean &amp; comfy, this place was great for me &amp; I'll stay here again when I return to Castle Rock for more classes.  Nice express chck-out, too.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r137224319-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>137224319</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>Rude staff and only a ok hotel</t>
+  </si>
+  <si>
+    <t>stayed here 1 night and moved to a close by Best Western. The girl at front desk was not nice or helpful , hotel only decent, breakfast only goes until 9 am and at 8:55 am, the same girl comes in and 1 of the guest has a waffle in the waffle maker and she unplugs it and takles the coffee, orange juice and milk away as people were attempting to fix their breakfast!! 9:00 am is too early when you are in a tourist area and if people are fixing breakfast they should wait a little longe before shutting it down!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r137179036-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>137179036</t>
+  </si>
+  <si>
+    <t>Nice decor, but . .</t>
+  </si>
+  <si>
+    <t>Physically, the hotel is very nice.  I liked the decor.  Rooms were nice and clean.  Pool was small but the kids liked it.  The issue I had with my stay here was the front desk staff who were missing.  I then called the operator who also did not answer and left a message.  No one returned my call.  I eventually resolved my problem after I walked around the hotel and found a housekeeper.  I will think twice about staying here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r135500757-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>135500757</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Comfortable Place to Stay</t>
+  </si>
+  <si>
+    <t>I come here about once per month for business.  This is a clean hotel, the front desk staff is helpful.  I recommend this hotel in Castle Rock.  The breakfast is OK - they have hard boiled eggs which are my favorite.  There is also a decent workout room where I can get the day started.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r134514780-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>134514780</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>Pet Friendlyl</t>
+  </si>
+  <si>
+    <t>I have stayed at this Comfort Suites for several years when I travel to Castle Rock for dog agility trials.  The staff is very helpful, the rooms are large and clean.  I definitely appreciate having a place I can be comfortable with my dog(s).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r134127360-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>134127360</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>Very nice room</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay in Comfort Suites in Castle Rock, CO.  We liked not having to watch TV in bed since we had another room to watch TV and eat dinner, breakfast and drink our coffee. We will use this hotel chain again.Beds are nice and firm with lots of pillows which need to be firm for us. This room had a balcony but a tree ws growing right in it so we could not sit there. The chairs were also plastic and rotten! So we had no view this time.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r129241461-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>129241461</t>
+  </si>
+  <si>
+    <t>05/02/2012</t>
+  </si>
+  <si>
+    <t>very nice property</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel several times (twice a year for several years) and have always been happy with everything.. The suites have all the amenities, Beds are comfortable. The staff is very friendly and always helpful. Continental breakfast is great w/ several choices (hot and cold)in a very nice breakfast room...There is a pool, hot tub, and excersize room.    We will definitely be back!!</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r128647845-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>128647845</t>
+  </si>
+  <si>
+    <t>04/26/2012</t>
+  </si>
+  <si>
+    <t>Nice last minute stay</t>
+  </si>
+  <si>
+    <t>I had something unexpected come up and needed to find a place quickly (and fairly inexpensive) to stay in Castle Rock overnight.  I compared some of the other hotels in the area and decided that Comfort Suites was the place for me.  I was there for only about 9 hours, but the room was comfortable.  It was quiet, clean and the shower was good.  The young ladies at the front desk were friendly.  I may have more of these quick overnighters coming up in the near future and Comfort Suites will be one of the first places I consider.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r128458290-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>128458290</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Great Stay and relaxing</t>
+  </si>
+  <si>
+    <t>We we're in the middle of walking over 1,000 miles to raise wareness for tbi and ptsd and we needed a quit place and a comfortable place and the Castle Rock Comfort Suits was that place. Thanks</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r125663887-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>125663887</t>
+  </si>
+  <si>
+    <t>03/05/2012</t>
+  </si>
+  <si>
+    <t>Won't Go Back - Super dirty room!</t>
+  </si>
+  <si>
+    <t>We were there for a weekend for our kids wrestling tournament. Got there, put our stuff in our room went to eat then got back in time for the kids to take a quick dip in the pool. When we got back to the room we were getting everything settled so the kids could get ready for bed, we pulled out the sofa sleeper and underneath there were a ton of crumbs and trash, the springs in the matress wouldn't stay and as soon as you sat on it you went all the way through. We went to use the phone to call the front desk and it didn't work so we picked it up to see if there was something unplugged when we picked the phone up the underneath had this sticky stuff that my fingers got all over them! My husband went downstairs to talk to the front desk she said sorry, he asked for a rollaway and she said that would be a $10 charge per night! Seriously, she then decided she would "comp" the rollaway. When I went down to talk  to her wanting to speak to a manager she said he was out for the weekend. I told her my gripes with the room she told me I could check out that was the only option because they didn't have any other rooms available AND I would still get charged for the night. I am...We were there for a weekend for our kids wrestling tournament. Got there, put our stuff in our room went to eat then got back in time for the kids to take a quick dip in the pool. When we got back to the room we were getting everything settled so the kids could get ready for bed, we pulled out the sofa sleeper and underneath there were a ton of crumbs and trash, the springs in the matress wouldn't stay and as soon as you sat on it you went all the way through. We went to use the phone to call the front desk and it didn't work so we picked it up to see if there was something unplugged when we picked the phone up the underneath had this sticky stuff that my fingers got all over them! My husband went downstairs to talk to the front desk she said sorry, he asked for a rollaway and she said that would be a $10 charge per night! Seriously, she then decided she would "comp" the rollaway. When I went down to talk  to her wanting to speak to a manager she said he was out for the weekend. I told her my gripes with the room she told me I could check out that was the only option because they didn't have any other rooms available AND I would still get charged for the night. I am not made of money and  there wasn't any where else for us to go at 10 at night because everywhere was booked because of the State Championship tournament there. (the whole reason we were in the hotel). So we decided to stay. As I was getting into bed I pulled the pillows down and noticed hard old looked like yogurt stuck and dried to the bottom of the headboard. How gross!!!! The second night we decided we were going to order pizza and the book with the hotel info said to get the menu from the front desk, when I went down to ask for it she had no idea what I was talking about and told me to go look over at the cubbies and see if maybe there was info over there. The front desk wasn'[t helpful at all and I can't believe they didn't have a manger on duty on such a busy weekend. We will never stay there again. We never really stay in hotels so my kids were so excited to be there and to have it so gross and unaccomadating really sucked. That was a lot of money we spent. We wanted the weekend to be special for the kids. Instead we had horrible sleeping arangements, and a dirty room!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>We were there for a weekend for our kids wrestling tournament. Got there, put our stuff in our room went to eat then got back in time for the kids to take a quick dip in the pool. When we got back to the room we were getting everything settled so the kids could get ready for bed, we pulled out the sofa sleeper and underneath there were a ton of crumbs and trash, the springs in the matress wouldn't stay and as soon as you sat on it you went all the way through. We went to use the phone to call the front desk and it didn't work so we picked it up to see if there was something unplugged when we picked the phone up the underneath had this sticky stuff that my fingers got all over them! My husband went downstairs to talk to the front desk she said sorry, he asked for a rollaway and she said that would be a $10 charge per night! Seriously, she then decided she would "comp" the rollaway. When I went down to talk  to her wanting to speak to a manager she said he was out for the weekend. I told her my gripes with the room she told me I could check out that was the only option because they didn't have any other rooms available AND I would still get charged for the night. I am...We were there for a weekend for our kids wrestling tournament. Got there, put our stuff in our room went to eat then got back in time for the kids to take a quick dip in the pool. When we got back to the room we were getting everything settled so the kids could get ready for bed, we pulled out the sofa sleeper and underneath there were a ton of crumbs and trash, the springs in the matress wouldn't stay and as soon as you sat on it you went all the way through. We went to use the phone to call the front desk and it didn't work so we picked it up to see if there was something unplugged when we picked the phone up the underneath had this sticky stuff that my fingers got all over them! My husband went downstairs to talk to the front desk she said sorry, he asked for a rollaway and she said that would be a $10 charge per night! Seriously, she then decided she would "comp" the rollaway. When I went down to talk  to her wanting to speak to a manager she said he was out for the weekend. I told her my gripes with the room she told me I could check out that was the only option because they didn't have any other rooms available AND I would still get charged for the night. I am not made of money and  there wasn't any where else for us to go at 10 at night because everywhere was booked because of the State Championship tournament there. (the whole reason we were in the hotel). So we decided to stay. As I was getting into bed I pulled the pillows down and noticed hard old looked like yogurt stuck and dried to the bottom of the headboard. How gross!!!! The second night we decided we were going to order pizza and the book with the hotel info said to get the menu from the front desk, when I went down to ask for it she had no idea what I was talking about and told me to go look over at the cubbies and see if maybe there was info over there. The front desk wasn'[t helpful at all and I can't believe they didn't have a manger on duty on such a busy weekend. We will never stay there again. We never really stay in hotels so my kids were so excited to be there and to have it so gross and unaccomadating really sucked. That was a lot of money we spent. We wanted the weekend to be special for the kids. Instead we had horrible sleeping arangements, and a dirty room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r125138660-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>125138660</t>
+  </si>
+  <si>
+    <t>02/24/2012</t>
+  </si>
+  <si>
+    <t>Very Good Weekend Stay</t>
+  </si>
+  <si>
+    <t>The hotel staff was very friendly and accommodating.  The room was clean and quieter (considering neighbor noise) than some hotel rooms I've had before.  All features worked as advertised.  The breakfast was good and the variety of choices was very good.  The pool/spa area was clean.  I would stay again.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r124020236-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>124020236</t>
+  </si>
+  <si>
+    <t>02/02/2012</t>
+  </si>
+  <si>
+    <t>OK but wouldn't return</t>
+  </si>
+  <si>
+    <t>The girl checking us in was really really kind, especially after a mixup with Expedia (note to others, if you put in Castle Rock it will instead pull one up in Denver).  Throughout our stay the service was definitely top notch.However, the room was OK.  There were suspicious white stains on the couch (I'll let you go ahead and think what you'd have thought they were... ick).  The bathroom was kind of a mess.  There were a ton of white strings hanging off the faucet.  I'm sure from cleaning but... still.  There was some mold issues in the bathtub (around the faucet and the handle on the wall) and the ENTIRE thing on the wall moved when you tried to turn the shower on or off, very odd.  The bed was the most uncomfortable thing I've ever slept in.  Beyond that, our room was above the doors to go outside (room 205) so all night all we heard was the doors opening and closing.  If you do stay here, PLEASE ask to not be in this room.  Neither of us slept a solid night due to that.  The continental breakfast was good and what I've come to love about Comfort Suites.  I was sad the waffle flavor didn't change every day like it does at other locations but everything was still good.  It isn't a BAD place to stay but definitely not one I'd return to.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>The girl checking us in was really really kind, especially after a mixup with Expedia (note to others, if you put in Castle Rock it will instead pull one up in Denver).  Throughout our stay the service was definitely top notch.However, the room was OK.  There were suspicious white stains on the couch (I'll let you go ahead and think what you'd have thought they were... ick).  The bathroom was kind of a mess.  There were a ton of white strings hanging off the faucet.  I'm sure from cleaning but... still.  There was some mold issues in the bathtub (around the faucet and the handle on the wall) and the ENTIRE thing on the wall moved when you tried to turn the shower on or off, very odd.  The bed was the most uncomfortable thing I've ever slept in.  Beyond that, our room was above the doors to go outside (room 205) so all night all we heard was the doors opening and closing.  If you do stay here, PLEASE ask to not be in this room.  Neither of us slept a solid night due to that.  The continental breakfast was good and what I've come to love about Comfort Suites.  I was sad the waffle flavor didn't change every day like it does at other locations but everything was still good.  It isn't a BAD place to stay but definitely not one I'd return to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r118797194-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>118797194</t>
+  </si>
+  <si>
+    <t>09/30/2011</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>I got a wedding room block her and everything went very smoothly. Their price was great and they were very accommodating to our needs especially when we asked them to tell guests that we do have transportation for them when they checked in under the block name. Thanks so much, I would definitely recommend!</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r118020421-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>118020421</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>DEAD MOUSE and lousy customer service</t>
+  </si>
+  <si>
+    <t>DEAD MOUSE found in corner of room.  Two adjoining rooms with 3 sleeping kids and moved them to last adjoining room set after waking them at 9:30pm.  New rooms had pukey smell and stain behind headboard.  The owner had no apology and offered one room for one night free.  Corporate owner Choice Hotels thought that was adequate too.  I feel differently, hence the one star.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>ComfortCastleRock, Manager at Comfort Suites Castle Rock, responded to this reviewResponded September 30, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2011</t>
+  </si>
+  <si>
+    <t>DEAD MOUSE found in corner of room.  Two adjoining rooms with 3 sleeping kids and moved them to last adjoining room set after waking them at 9:30pm.  New rooms had pukey smell and stain behind headboard.  The owner had no apology and offered one room for one night free.  Corporate owner Choice Hotels thought that was adequate too.  I feel differently, hence the one star.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r116273297-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>116273297</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>Needs carpet cleaned</t>
+  </si>
+  <si>
+    <t>Based on what I saw on the photos I expected a very nice hotel. It was just basic, for the price of $90.00 it wasn't worth it. I would chose another location. The halls feel very narrow, the carpets needed to be cleaned and it felt dingy in the hallways. The staff was nice. The shower walls in need to be scrubbed! The toiletries are nothing fancy so bring your own. It was close to resturants for us to walk and close to the outlet mall.  We didnt eat the breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Based on what I saw on the photos I expected a very nice hotel. It was just basic, for the price of $90.00 it wasn't worth it. I would chose another location. The halls feel very narrow, the carpets needed to be cleaned and it felt dingy in the hallways. The staff was nice. The shower walls in need to be scrubbed! The toiletries are nothing fancy so bring your own. It was close to resturants for us to walk and close to the outlet mall.  We didnt eat the breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r115632945-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>115632945</t>
+  </si>
+  <si>
+    <t>07/21/2011</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay</t>
+  </si>
+  <si>
+    <t>From check in to check out, everything was fine.  This hotel is close to the interstate and easy to find.  We stayed there for a week end and it was a nice place to stay. The hotel seemed like it was a lot newer than the furniture.  May have got the furniture from a close out or something.  The front desk personnel really seemed to care for their guests by trying to help in any way they could such as giving maps of the area or telling the guests about restaurants.  The bedding was good and the pillows were standard Choice pillows.  One former review had the breakfast was lacking.  Choice has changed their breakfast policy since June 1, 2011 and all Comfort Inns and Comfort Suites now have to a lot more on their breakfast menu.  I was disappointed on Sunday because the only meat they had was sausage gravy and biscuits.  Not good for a diabetic and they did not have sugar free syrup for their waffles.  On Monday we had planned to leave early and get the Grab and Go Bag offered by Comfort Suites, but the night auditor said the items for the bags were locked in a room that he did not have a key for, but he had the breakfast our early any way so that was okay.MoreShow less</t>
+  </si>
+  <si>
+    <t>From check in to check out, everything was fine.  This hotel is close to the interstate and easy to find.  We stayed there for a week end and it was a nice place to stay. The hotel seemed like it was a lot newer than the furniture.  May have got the furniture from a close out or something.  The front desk personnel really seemed to care for their guests by trying to help in any way they could such as giving maps of the area or telling the guests about restaurants.  The bedding was good and the pillows were standard Choice pillows.  One former review had the breakfast was lacking.  Choice has changed their breakfast policy since June 1, 2011 and all Comfort Inns and Comfort Suites now have to a lot more on their breakfast menu.  I was disappointed on Sunday because the only meat they had was sausage gravy and biscuits.  Not good for a diabetic and they did not have sugar free syrup for their waffles.  On Monday we had planned to leave early and get the Grab and Go Bag offered by Comfort Suites, but the night auditor said the items for the bags were locked in a room that he did not have a key for, but he had the breakfast our early any way so that was okay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r111373758-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>111373758</t>
+  </si>
+  <si>
+    <t>06/03/2011</t>
+  </si>
+  <si>
+    <t>Absolutely wonderful and very accomodating</t>
+  </si>
+  <si>
+    <t>We rented the breakfast area and pool/hot tub for about 40 people for a college graduation party we hosted.  The staff (Mayra, Shayleen, Jason, and the owner Mr. Patel) were extremely organized, willing to help set up, and do anything necessary to make this party memorable.  They were willing to work with us prior to and during the party.  We would recommend this hotel to any group that is planning a party, meeting, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>We rented the breakfast area and pool/hot tub for about 40 people for a college graduation party we hosted.  The staff (Mayra, Shayleen, Jason, and the owner Mr. Patel) were extremely organized, willing to help set up, and do anything necessary to make this party memorable.  They were willing to work with us prior to and during the party.  We would recommend this hotel to any group that is planning a party, meeting, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r104152714-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>104152714</t>
+  </si>
+  <si>
+    <t>04/15/2011</t>
+  </si>
+  <si>
+    <t>Thanks for everything!</t>
+  </si>
+  <si>
+    <t>A group of us stayed at Comfort Suites while attending a conference.  The staff was very friendly and accommodating.  We actually had to change our reservations a couple of times and the staff always had a "no problem" attitude.  Will definitely return if we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>A group of us stayed at Comfort Suites while attending a conference.  The staff was very friendly and accommodating.  We actually had to change our reservations a couple of times and the staff always had a "no problem" attitude.  Will definitely return if we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r103534235-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>103534235</t>
+  </si>
+  <si>
+    <t>04/10/2011</t>
+  </si>
+  <si>
+    <t>Dingy</t>
+  </si>
+  <si>
+    <t>The hotel is a minimum qualifier for my family which means it just barely meets our standard.  The room was dingy and seemed dirty--though I think it was clean.  Staff was nice and helpful.  Somthing was terribly wrong with the eggs on the first morning--they just tasted bad.  I understand instant eggs--microwaved or otherwise--but something was seriously wrong with these.  Brought it to the front desks attention but no effort was made to remedy the situation.  I overheard another couple at a nearby table also react to the eggs and get up and throw theirs away.  All of the amenities that you would expect at a Comfort Suites were there--it just seems dingy overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is a minimum qualifier for my family which means it just barely meets our standard.  The room was dingy and seemed dirty--though I think it was clean.  Staff was nice and helpful.  Somthing was terribly wrong with the eggs on the first morning--they just tasted bad.  I understand instant eggs--microwaved or otherwise--but something was seriously wrong with these.  Brought it to the front desks attention but no effort was made to remedy the situation.  I overheard another couple at a nearby table also react to the eggs and get up and throw theirs away.  All of the amenities that you would expect at a Comfort Suites were there--it just seems dingy overall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r87944623-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>87944623</t>
+  </si>
+  <si>
+    <t>11/22/2010</t>
+  </si>
+  <si>
+    <t>Disappointing for regular Choice customers</t>
+  </si>
+  <si>
+    <t>Carpet in room was really dirty.  Breakfast was one of the worst ever in a Choice hotel.  The fruit looked old, the selection overall was small and the pastries were mostly prepackaged.  There was one kind of tea bag and no hot chocolate.  We'll try the Hampton next door on future trips.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r82319519-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>82319519</t>
+  </si>
+  <si>
+    <t>10/06/2010</t>
+  </si>
+  <si>
+    <t>clean and quiet</t>
+  </si>
+  <si>
+    <t>Nothing too special but the room was pretty big and clean, free breakfast and a pool (Though coming from Chicago most rooms feel large in Castle Rock!). No HD TV but that's common. Overall, the hotel was as advertised. I would recommend it.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r52218664-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>52218664</t>
+  </si>
+  <si>
+    <t>12/30/2009</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>I was worried about staying in the hotel after reading all of the bad reviews on this site but since we were not traveling alone, we did not want to change everyones plans.  I am glad we did not listen!!  We ended up having to spend 10 nights over Christmas there as a blizzard shut down roads back home, so there was a lot of time to find flaws.  There is not one thing about the hotel that I did not like!  The location is great. Close to alot but tucked away so noise was NEVER an issue.  Our room was completely clean when we arrived and housekeeping did a great job keeping it that way.  The staff was more than helpful and really friendly!   We left for home EARLY in the morning and the staff sent breakfast items with us for our 3 young kids, even though it was well before breakfast hours!  The breakfast they serve is pretty good, enough selection to make all of us happy.  My hubby had a work a bit from our room and the internet connection worked fast, everytime.  The beds were really comfy and the extra sofa with pull out bed was perfect for our oldest child!  The fridge and mircowave in the room is also a huge plus for us!  We used the pool/hot tub everyday and loved that the pool was warm!  The hot tub was a bit on the...I was worried about staying in the hotel after reading all of the bad reviews on this site but since we were not traveling alone, we did not want to change everyones plans.  I am glad we did not listen!!  We ended up having to spend 10 nights over Christmas there as a blizzard shut down roads back home, so there was a lot of time to find flaws.  There is not one thing about the hotel that I did not like!  The location is great. Close to alot but tucked away so noise was NEVER an issue.  Our room was completely clean when we arrived and housekeeping did a great job keeping it that way.  The staff was more than helpful and really friendly!   We left for home EARLY in the morning and the staff sent breakfast items with us for our 3 young kids, even though it was well before breakfast hours!  The breakfast they serve is pretty good, enough selection to make all of us happy.  My hubby had a work a bit from our room and the internet connection worked fast, everytime.  The beds were really comfy and the extra sofa with pull out bed was perfect for our oldest child!  The fridge and mircowave in the room is also a huge plus for us!  We used the pool/hot tub everyday and loved that the pool was warm!  The hot tub was a bit on the hot side, but felt really nice after being out in the chilly air all day!  We will stay here again and again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>I was worried about staying in the hotel after reading all of the bad reviews on this site but since we were not traveling alone, we did not want to change everyones plans.  I am glad we did not listen!!  We ended up having to spend 10 nights over Christmas there as a blizzard shut down roads back home, so there was a lot of time to find flaws.  There is not one thing about the hotel that I did not like!  The location is great. Close to alot but tucked away so noise was NEVER an issue.  Our room was completely clean when we arrived and housekeeping did a great job keeping it that way.  The staff was more than helpful and really friendly!   We left for home EARLY in the morning and the staff sent breakfast items with us for our 3 young kids, even though it was well before breakfast hours!  The breakfast they serve is pretty good, enough selection to make all of us happy.  My hubby had a work a bit from our room and the internet connection worked fast, everytime.  The beds were really comfy and the extra sofa with pull out bed was perfect for our oldest child!  The fridge and mircowave in the room is also a huge plus for us!  We used the pool/hot tub everyday and loved that the pool was warm!  The hot tub was a bit on the...I was worried about staying in the hotel after reading all of the bad reviews on this site but since we were not traveling alone, we did not want to change everyones plans.  I am glad we did not listen!!  We ended up having to spend 10 nights over Christmas there as a blizzard shut down roads back home, so there was a lot of time to find flaws.  There is not one thing about the hotel that I did not like!  The location is great. Close to alot but tucked away so noise was NEVER an issue.  Our room was completely clean when we arrived and housekeeping did a great job keeping it that way.  The staff was more than helpful and really friendly!   We left for home EARLY in the morning and the staff sent breakfast items with us for our 3 young kids, even though it was well before breakfast hours!  The breakfast they serve is pretty good, enough selection to make all of us happy.  My hubby had a work a bit from our room and the internet connection worked fast, everytime.  The beds were really comfy and the extra sofa with pull out bed was perfect for our oldest child!  The fridge and mircowave in the room is also a huge plus for us!  We used the pool/hot tub everyday and loved that the pool was warm!  The hot tub was a bit on the hot side, but felt really nice after being out in the chilly air all day!  We will stay here again and again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r41673244-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>41673244</t>
+  </si>
+  <si>
+    <t>09/14/2009</t>
+  </si>
+  <si>
+    <t>For a night near the Interstate</t>
+  </si>
+  <si>
+    <t>Travelling south from Denver this hotel may be a good choice if looking for a cheap accomodation. It isn't immediate to see and find and it is the last one after some other lodges, but it offers very large clean rooms with all the facilities. Big beds, big TV, fridge, microwave and iron, with swimming pool and breakfast included in the price. The only complaint was the temperature of the shower: just warm, 3-4 degrees below ideal temperature. But probably that was a temporary problem. In the nearby there are some restaurants for a good dinner.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r33876955-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>33876955</t>
+  </si>
+  <si>
+    <t>07/04/2009</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>toilet  dirty,had urine build-up around seat connections and pubic hair on bowl for two days, cleaned myself. was accused of smoking,but have never smoked. peaple were smoking all around us out on the balconies,why they picked us i do not know. we are in our fifties and stayed in many hotels, this was the worst one ever. the hotel women was rude and would not listen.we booked two rooms and she charged both rooms 150.00. maybe thats why she accused us. talked to manager next day charges were dropped,but checked out and went to bestwestern. much better place to stay. breakfast was also bad sausage was gray and tasted terrible. not much selectionMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>toilet  dirty,had urine build-up around seat connections and pubic hair on bowl for two days, cleaned myself. was accused of smoking,but have never smoked. peaple were smoking all around us out on the balconies,why they picked us i do not know. we are in our fifties and stayed in many hotels, this was the worst one ever. the hotel women was rude and would not listen.we booked two rooms and she charged both rooms 150.00. maybe thats why she accused us. talked to manager next day charges were dropped,but checked out and went to bestwestern. much better place to stay. breakfast was also bad sausage was gray and tasted terrible. not much selectionMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r14795723-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>14795723</t>
+  </si>
+  <si>
+    <t>04/04/2008</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on a recent quick trip to CO.  We often stay with the choice hotels chain.  The hotel was nice, room was as described, breakfast was great, and the room was clean.  Many restaurants and stores are close to the hotel, and it has easy access to the interstate.  When staying in this area be sure to visit Focus on the Family.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r11286830-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>11286830</t>
+  </si>
+  <si>
+    <t>12/06/2007</t>
+  </si>
+  <si>
+    <t>Great Quiet Accomodations</t>
+  </si>
+  <si>
+    <t>The hotel is conviniently located next to a large outlet mall.  We selected the hotel based on its setback from the highway (the other hotels seemed to be too close to the interstate).  The stay as anticipated was quiet.  The kids loved the indoor pool, large rooms, and hot breakfast (sausage, waffles, eggs, yogurt, pastries, and other stuff).  I was even able to get some work done because of the free high speed internet  connection that the hotel provides.  We will definately stay at this hotel again.</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d225599-r11208978-Comfort_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>11208978</t>
+  </si>
+  <si>
+    <t>12/02/2007</t>
+  </si>
+  <si>
+    <t>perfect stay</t>
+  </si>
+  <si>
+    <t>We decided to do our Christmas shopping early, so after reviewing potential hotels online, we ended up selecting the Comfort Suites.After calling the hotel directly, we were pleased that the polite front desk person was able to get us a room on the top floor (our frist choice whenever we stay at a hotel).  We were also pleased that the entire hotel is SMOKE-FREE (another huge plus).The check-in was quick and painless and we were surprised that the front desk even had shopping coupons for the Outlet Mall next door (another plus).The room itself was clean and efficient and our overall stay went very smoothly.One other note: The front desk didn't mention this until we checked in, but as guests, we were allowed full access to the gym next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>We decided to do our Christmas shopping early, so after reviewing potential hotels online, we ended up selecting the Comfort Suites.After calling the hotel directly, we were pleased that the polite front desk person was able to get us a room on the top floor (our frist choice whenever we stay at a hotel).  We were also pleased that the entire hotel is SMOKE-FREE (another huge plus).The check-in was quick and painless and we were surprised that the front desk even had shopping coupons for the Outlet Mall next door (another plus).The room itself was clean and efficient and our overall stay went very smoothly.One other note: The front desk didn't mention this until we checked in, but as guests, we were allowed full access to the gym next door.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2537,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2569,6450 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>137</v>
+      </c>
+      <c r="X16" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>199</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
+      <c r="O26" t="s">
+        <v>199</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>211</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>222</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" t="s">
+        <v>230</v>
+      </c>
+      <c r="K31" t="s">
+        <v>231</v>
+      </c>
+      <c r="L31" t="s">
+        <v>232</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>233</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>236</v>
+      </c>
+      <c r="J32" t="s">
+        <v>237</v>
+      </c>
+      <c r="K32" t="s">
+        <v>238</v>
+      </c>
+      <c r="L32" t="s">
+        <v>239</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>233</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" t="s">
+        <v>242</v>
+      </c>
+      <c r="K33" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>233</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" t="s">
+        <v>247</v>
+      </c>
+      <c r="K34" t="s">
+        <v>248</v>
+      </c>
+      <c r="L34" t="s">
+        <v>249</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>250</v>
+      </c>
+      <c r="O34" t="s">
+        <v>199</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" t="s">
+        <v>255</v>
+      </c>
+      <c r="L35" t="s">
+        <v>256</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>257</v>
+      </c>
+      <c r="X35" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>261</v>
+      </c>
+      <c r="J36" t="s">
+        <v>262</v>
+      </c>
+      <c r="K36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L36" t="s">
+        <v>264</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>250</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>267</v>
+      </c>
+      <c r="J37" t="s">
+        <v>268</v>
+      </c>
+      <c r="K37" t="s">
+        <v>269</v>
+      </c>
+      <c r="L37" t="s">
+        <v>270</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>271</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>272</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>273</v>
+      </c>
+      <c r="J38" t="s">
+        <v>274</v>
+      </c>
+      <c r="K38" t="s">
+        <v>275</v>
+      </c>
+      <c r="L38" t="s">
+        <v>276</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>277</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>279</v>
+      </c>
+      <c r="J39" t="s">
+        <v>280</v>
+      </c>
+      <c r="K39" t="s">
+        <v>281</v>
+      </c>
+      <c r="L39" t="s">
+        <v>282</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>277</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>283</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>284</v>
+      </c>
+      <c r="J40" t="s">
+        <v>285</v>
+      </c>
+      <c r="K40" t="s">
+        <v>286</v>
+      </c>
+      <c r="L40" t="s">
+        <v>287</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>288</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>289</v>
+      </c>
+      <c r="X40" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>293</v>
+      </c>
+      <c r="J41" t="s">
+        <v>294</v>
+      </c>
+      <c r="K41" t="s">
+        <v>295</v>
+      </c>
+      <c r="L41" t="s">
+        <v>296</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>297</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>299</v>
+      </c>
+      <c r="J42" t="s">
+        <v>300</v>
+      </c>
+      <c r="K42" t="s">
+        <v>301</v>
+      </c>
+      <c r="L42" t="s">
+        <v>302</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>297</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>305</v>
+      </c>
+      <c r="J43" t="s">
+        <v>306</v>
+      </c>
+      <c r="K43" t="s">
+        <v>307</v>
+      </c>
+      <c r="L43" t="s">
+        <v>308</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>309</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>311</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>312</v>
+      </c>
+      <c r="J44" t="s">
+        <v>313</v>
+      </c>
+      <c r="K44" t="s">
+        <v>314</v>
+      </c>
+      <c r="L44" t="s">
+        <v>315</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>316</v>
+      </c>
+      <c r="X44" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>320</v>
+      </c>
+      <c r="J45" t="s">
+        <v>321</v>
+      </c>
+      <c r="K45" t="s">
+        <v>322</v>
+      </c>
+      <c r="L45" t="s">
+        <v>323</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>324</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>325</v>
+      </c>
+      <c r="X45" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>329</v>
+      </c>
+      <c r="J46" t="s">
+        <v>330</v>
+      </c>
+      <c r="K46" t="s">
+        <v>331</v>
+      </c>
+      <c r="L46" t="s">
+        <v>332</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>324</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>333</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>334</v>
+      </c>
+      <c r="J47" t="s">
+        <v>335</v>
+      </c>
+      <c r="K47" t="s">
+        <v>336</v>
+      </c>
+      <c r="L47" t="s">
+        <v>337</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>324</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>338</v>
+      </c>
+      <c r="X47" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>341</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>342</v>
+      </c>
+      <c r="J48" t="s">
+        <v>343</v>
+      </c>
+      <c r="K48" t="s">
+        <v>101</v>
+      </c>
+      <c r="L48" t="s">
+        <v>344</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>345</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>346</v>
+      </c>
+      <c r="X48" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>349</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>350</v>
+      </c>
+      <c r="J49" t="s">
+        <v>351</v>
+      </c>
+      <c r="K49" t="s">
+        <v>352</v>
+      </c>
+      <c r="L49" t="s">
+        <v>353</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>345</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>354</v>
+      </c>
+      <c r="X49" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>357</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>358</v>
+      </c>
+      <c r="J50" t="s">
+        <v>359</v>
+      </c>
+      <c r="K50" t="s">
+        <v>360</v>
+      </c>
+      <c r="L50" t="s">
+        <v>361</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>362</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>363</v>
+      </c>
+      <c r="X50" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>366</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>367</v>
+      </c>
+      <c r="J51" t="s">
+        <v>368</v>
+      </c>
+      <c r="K51" t="s">
+        <v>369</v>
+      </c>
+      <c r="L51" t="s">
+        <v>370</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>371</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>372</v>
+      </c>
+      <c r="X51" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>375</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>376</v>
+      </c>
+      <c r="J52" t="s">
+        <v>377</v>
+      </c>
+      <c r="K52" t="s">
+        <v>378</v>
+      </c>
+      <c r="L52" t="s">
+        <v>379</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>371</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>372</v>
+      </c>
+      <c r="X52" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>381</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>382</v>
+      </c>
+      <c r="J53" t="s">
+        <v>383</v>
+      </c>
+      <c r="K53" t="s">
+        <v>384</v>
+      </c>
+      <c r="L53" t="s">
+        <v>385</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>386</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>387</v>
+      </c>
+      <c r="X53" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>390</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>391</v>
+      </c>
+      <c r="J54" t="s">
+        <v>392</v>
+      </c>
+      <c r="K54" t="s">
+        <v>393</v>
+      </c>
+      <c r="L54" t="s">
+        <v>394</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>395</v>
+      </c>
+      <c r="X54" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>398</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>399</v>
+      </c>
+      <c r="J55" t="s">
+        <v>400</v>
+      </c>
+      <c r="K55" t="s">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s">
+        <v>402</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>403</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>395</v>
+      </c>
+      <c r="X55" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>406</v>
+      </c>
+      <c r="J56" t="s">
+        <v>407</v>
+      </c>
+      <c r="K56" t="s">
+        <v>408</v>
+      </c>
+      <c r="L56" t="s">
+        <v>409</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>410</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>411</v>
+      </c>
+      <c r="X56" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>414</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>415</v>
+      </c>
+      <c r="J57" t="s">
+        <v>416</v>
+      </c>
+      <c r="K57" t="s">
+        <v>417</v>
+      </c>
+      <c r="L57" t="s">
+        <v>418</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>410</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>419</v>
+      </c>
+      <c r="X57" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>422</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>423</v>
+      </c>
+      <c r="J58" t="s">
+        <v>424</v>
+      </c>
+      <c r="K58" t="s">
+        <v>425</v>
+      </c>
+      <c r="L58" t="s">
+        <v>426</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>410</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>427</v>
+      </c>
+      <c r="X58" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>430</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>431</v>
+      </c>
+      <c r="J59" t="s">
+        <v>432</v>
+      </c>
+      <c r="K59" t="s">
+        <v>433</v>
+      </c>
+      <c r="L59" t="s">
+        <v>434</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>435</v>
+      </c>
+      <c r="O59" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>436</v>
+      </c>
+      <c r="X59" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>439</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>440</v>
+      </c>
+      <c r="J60" t="s">
+        <v>441</v>
+      </c>
+      <c r="K60" t="s">
+        <v>442</v>
+      </c>
+      <c r="L60" t="s">
+        <v>443</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>435</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>444</v>
+      </c>
+      <c r="X60" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>447</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>448</v>
+      </c>
+      <c r="J61" t="s">
+        <v>441</v>
+      </c>
+      <c r="K61" t="s">
+        <v>449</v>
+      </c>
+      <c r="L61" t="s">
+        <v>450</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>435</v>
+      </c>
+      <c r="O61" t="s">
+        <v>199</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>444</v>
+      </c>
+      <c r="X61" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>452</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>453</v>
+      </c>
+      <c r="J62" t="s">
+        <v>454</v>
+      </c>
+      <c r="K62" t="s">
+        <v>455</v>
+      </c>
+      <c r="L62" t="s">
+        <v>456</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>457</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>458</v>
+      </c>
+      <c r="X62" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>461</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>462</v>
+      </c>
+      <c r="J63" t="s">
+        <v>463</v>
+      </c>
+      <c r="K63" t="s">
+        <v>464</v>
+      </c>
+      <c r="L63" t="s">
+        <v>465</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>466</v>
+      </c>
+      <c r="X63" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>469</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>470</v>
+      </c>
+      <c r="J64" t="s">
+        <v>471</v>
+      </c>
+      <c r="K64" t="s">
+        <v>472</v>
+      </c>
+      <c r="L64" t="s">
+        <v>473</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>474</v>
+      </c>
+      <c r="O64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>466</v>
+      </c>
+      <c r="X64" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>476</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>477</v>
+      </c>
+      <c r="J65" t="s">
+        <v>478</v>
+      </c>
+      <c r="K65" t="s">
+        <v>479</v>
+      </c>
+      <c r="L65" t="s">
+        <v>480</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>481</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>482</v>
+      </c>
+      <c r="X65" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>485</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>486</v>
+      </c>
+      <c r="J66" t="s">
+        <v>487</v>
+      </c>
+      <c r="K66" t="s">
+        <v>488</v>
+      </c>
+      <c r="L66" t="s">
+        <v>489</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>490</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>482</v>
+      </c>
+      <c r="X66" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>492</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>493</v>
+      </c>
+      <c r="J67" t="s">
+        <v>494</v>
+      </c>
+      <c r="K67" t="s">
+        <v>495</v>
+      </c>
+      <c r="L67" t="s">
+        <v>496</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>497</v>
+      </c>
+      <c r="O67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>498</v>
+      </c>
+      <c r="X67" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>501</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>502</v>
+      </c>
+      <c r="J68" t="s">
+        <v>503</v>
+      </c>
+      <c r="K68" t="s">
+        <v>504</v>
+      </c>
+      <c r="L68" t="s">
+        <v>505</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>506</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>507</v>
+      </c>
+      <c r="X68" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>510</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>511</v>
+      </c>
+      <c r="J69" t="s">
+        <v>512</v>
+      </c>
+      <c r="K69" t="s">
+        <v>513</v>
+      </c>
+      <c r="L69" t="s">
+        <v>514</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>506</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>507</v>
+      </c>
+      <c r="X69" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>516</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>517</v>
+      </c>
+      <c r="J70" t="s">
+        <v>518</v>
+      </c>
+      <c r="K70" t="s">
+        <v>519</v>
+      </c>
+      <c r="L70" t="s">
+        <v>520</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>506</v>
+      </c>
+      <c r="O70" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>507</v>
+      </c>
+      <c r="X70" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>522</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>523</v>
+      </c>
+      <c r="J71" t="s">
+        <v>524</v>
+      </c>
+      <c r="K71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L71" t="s">
+        <v>526</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>527</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>528</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>529</v>
+      </c>
+      <c r="J72" t="s">
+        <v>530</v>
+      </c>
+      <c r="K72" t="s">
+        <v>531</v>
+      </c>
+      <c r="L72" t="s">
+        <v>532</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>533</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>507</v>
+      </c>
+      <c r="X72" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>535</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>536</v>
+      </c>
+      <c r="J73" t="s">
+        <v>537</v>
+      </c>
+      <c r="K73" t="s">
+        <v>538</v>
+      </c>
+      <c r="L73" t="s">
+        <v>539</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>540</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>507</v>
+      </c>
+      <c r="X73" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>542</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>543</v>
+      </c>
+      <c r="J74" t="s">
+        <v>544</v>
+      </c>
+      <c r="K74" t="s">
+        <v>545</v>
+      </c>
+      <c r="L74" t="s">
+        <v>546</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>547</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>548</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>549</v>
+      </c>
+      <c r="J75" t="s">
+        <v>550</v>
+      </c>
+      <c r="K75" t="s">
+        <v>551</v>
+      </c>
+      <c r="L75" t="s">
+        <v>552</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>547</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>553</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>554</v>
+      </c>
+      <c r="J76" t="s">
+        <v>550</v>
+      </c>
+      <c r="K76" t="s">
+        <v>555</v>
+      </c>
+      <c r="L76" t="s">
+        <v>556</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>547</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>557</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>558</v>
+      </c>
+      <c r="J77" t="s">
+        <v>559</v>
+      </c>
+      <c r="K77" t="s">
+        <v>560</v>
+      </c>
+      <c r="L77" t="s">
+        <v>561</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>562</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>563</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>564</v>
+      </c>
+      <c r="J78" t="s">
+        <v>565</v>
+      </c>
+      <c r="K78" t="s">
+        <v>566</v>
+      </c>
+      <c r="L78" t="s">
+        <v>567</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>562</v>
+      </c>
+      <c r="O78" t="s">
+        <v>199</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>568</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>569</v>
+      </c>
+      <c r="J79" t="s">
+        <v>570</v>
+      </c>
+      <c r="K79" t="s">
+        <v>571</v>
+      </c>
+      <c r="L79" t="s">
+        <v>572</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>573</v>
+      </c>
+      <c r="O79" t="s">
+        <v>71</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>574</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>575</v>
+      </c>
+      <c r="J80" t="s">
+        <v>576</v>
+      </c>
+      <c r="K80" t="s">
+        <v>577</v>
+      </c>
+      <c r="L80" t="s">
+        <v>578</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>579</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>580</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>581</v>
+      </c>
+      <c r="J81" t="s">
+        <v>582</v>
+      </c>
+      <c r="K81" t="s">
+        <v>583</v>
+      </c>
+      <c r="L81" t="s">
+        <v>584</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>579</v>
+      </c>
+      <c r="O81" t="s">
+        <v>199</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>585</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>586</v>
+      </c>
+      <c r="J82" t="s">
+        <v>587</v>
+      </c>
+      <c r="K82" t="s">
+        <v>588</v>
+      </c>
+      <c r="L82" t="s">
+        <v>589</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>579</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>590</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>591</v>
+      </c>
+      <c r="J83" t="s">
+        <v>592</v>
+      </c>
+      <c r="K83" t="s">
+        <v>593</v>
+      </c>
+      <c r="L83" t="s">
+        <v>594</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>595</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>597</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>598</v>
+      </c>
+      <c r="J84" t="s">
+        <v>599</v>
+      </c>
+      <c r="K84" t="s">
+        <v>600</v>
+      </c>
+      <c r="L84" t="s">
+        <v>601</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>602</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>603</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>604</v>
+      </c>
+      <c r="J85" t="s">
+        <v>605</v>
+      </c>
+      <c r="K85" t="s">
+        <v>606</v>
+      </c>
+      <c r="L85" t="s">
+        <v>607</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>608</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>610</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>611</v>
+      </c>
+      <c r="J86" t="s">
+        <v>612</v>
+      </c>
+      <c r="K86" t="s">
+        <v>613</v>
+      </c>
+      <c r="L86" t="s">
+        <v>614</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>615</v>
+      </c>
+      <c r="O86" t="s">
+        <v>71</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>616</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>617</v>
+      </c>
+      <c r="J87" t="s">
+        <v>618</v>
+      </c>
+      <c r="K87" t="s">
+        <v>619</v>
+      </c>
+      <c r="L87" t="s">
+        <v>620</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>621</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>622</v>
+      </c>
+      <c r="X87" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>625</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>626</v>
+      </c>
+      <c r="J88" t="s">
+        <v>627</v>
+      </c>
+      <c r="K88" t="s">
+        <v>628</v>
+      </c>
+      <c r="L88" t="s">
+        <v>629</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>630</v>
+      </c>
+      <c r="O88" t="s">
+        <v>97</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>622</v>
+      </c>
+      <c r="X88" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>632</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>633</v>
+      </c>
+      <c r="J89" t="s">
+        <v>634</v>
+      </c>
+      <c r="K89" t="s">
+        <v>635</v>
+      </c>
+      <c r="L89" t="s">
+        <v>636</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>630</v>
+      </c>
+      <c r="O89" t="s">
+        <v>71</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>622</v>
+      </c>
+      <c r="X89" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>638</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>639</v>
+      </c>
+      <c r="J90" t="s">
+        <v>640</v>
+      </c>
+      <c r="K90" t="s">
+        <v>641</v>
+      </c>
+      <c r="L90" t="s">
+        <v>642</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>643</v>
+      </c>
+      <c r="O90" t="s">
+        <v>97</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>622</v>
+      </c>
+      <c r="X90" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>645</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>646</v>
+      </c>
+      <c r="J91" t="s">
+        <v>647</v>
+      </c>
+      <c r="K91" t="s">
+        <v>648</v>
+      </c>
+      <c r="L91" t="s">
+        <v>649</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>650</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>622</v>
+      </c>
+      <c r="X91" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>652</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>653</v>
+      </c>
+      <c r="J92" t="s">
+        <v>654</v>
+      </c>
+      <c r="K92" t="s">
+        <v>655</v>
+      </c>
+      <c r="L92" t="s">
+        <v>656</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>650</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>622</v>
+      </c>
+      <c r="X92" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>658</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>659</v>
+      </c>
+      <c r="J93" t="s">
+        <v>660</v>
+      </c>
+      <c r="K93" t="s">
+        <v>661</v>
+      </c>
+      <c r="L93" t="s">
+        <v>662</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>663</v>
+      </c>
+      <c r="O93" t="s">
+        <v>71</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>664</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>665</v>
+      </c>
+      <c r="J94" t="s">
+        <v>666</v>
+      </c>
+      <c r="K94" t="s">
+        <v>667</v>
+      </c>
+      <c r="L94" t="s">
+        <v>668</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>669</v>
+      </c>
+      <c r="O94" t="s">
+        <v>199</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>670</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>671</v>
+      </c>
+      <c r="J95" t="s">
+        <v>672</v>
+      </c>
+      <c r="K95" t="s">
+        <v>673</v>
+      </c>
+      <c r="L95" t="s">
+        <v>674</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>675</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>677</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>678</v>
+      </c>
+      <c r="J96" t="s">
+        <v>679</v>
+      </c>
+      <c r="K96" t="s">
+        <v>680</v>
+      </c>
+      <c r="L96" t="s">
+        <v>681</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>682</v>
+      </c>
+      <c r="O96" t="s">
+        <v>71</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>683</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>684</v>
+      </c>
+      <c r="J97" t="s">
+        <v>685</v>
+      </c>
+      <c r="K97" t="s">
+        <v>686</v>
+      </c>
+      <c r="L97" t="s">
+        <v>687</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>688</v>
+      </c>
+      <c r="O97" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>690</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>691</v>
+      </c>
+      <c r="J98" t="s">
+        <v>692</v>
+      </c>
+      <c r="K98" t="s">
+        <v>101</v>
+      </c>
+      <c r="L98" t="s">
+        <v>693</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>694</v>
+      </c>
+      <c r="O98" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>695</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>696</v>
+      </c>
+      <c r="J99" t="s">
+        <v>697</v>
+      </c>
+      <c r="K99" t="s">
+        <v>698</v>
+      </c>
+      <c r="L99" t="s">
+        <v>699</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>700</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>41554</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>701</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>702</v>
+      </c>
+      <c r="J100" t="s">
+        <v>703</v>
+      </c>
+      <c r="K100" t="s">
+        <v>704</v>
+      </c>
+      <c r="L100" t="s">
+        <v>705</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>706</v>
+      </c>
+      <c r="O100" t="s">
+        <v>71</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
